--- a/sql-scripts/scooter.xlsx
+++ b/sql-scripts/scooter.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="scooter_skovde" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scooter_skovde!$A$1:$I$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -63,6 +66,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]General"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E670" sqref="E670:F1003"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,10 +437,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>58.399560175262202</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F2">
-        <v>13.723921947089</v>
+        <v>13.8179737</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -488,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>58.407378000061897</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F4">
-        <v>13.8012408401947</v>
+        <v>13.8345447</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -575,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>58.382763629541998</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F7">
-        <v>13.779595279405401</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -604,10 +611,10 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>58.409650969246698</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F8">
-        <v>13.7914289131944</v>
+        <v>13.8345447</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -662,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>58.402567311154399</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F10">
-        <v>13.7713751435373</v>
+        <v>13.8345447</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -691,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>58.384104369065703</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F11">
-        <v>13.8687237051343</v>
+        <v>13.8316208</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -807,10 +814,10 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>58.383774683926802</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F15">
-        <v>13.7996312483812</v>
+        <v>13.8316208</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -835,11 +842,11 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>58.375566652209102</v>
+      <c r="E16" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F16">
-        <v>13.7879284903312</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -865,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>58.423487566418999</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F17">
-        <v>13.7764887280486</v>
+        <v>13.8517893</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -923,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>58.417284233811998</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F19">
-        <v>13.7781433943882</v>
+        <v>13.8345447</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1038,11 +1045,11 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>58.379286030471199</v>
+      <c r="E23" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F23">
-        <v>13.7127898159045</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1097,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>58.421331789108699</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F25">
-        <v>13.779214614571501</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1126,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>58.386887018161097</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F26">
-        <v>13.7522141529279</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1184,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>58.393098675634803</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F28">
-        <v>13.748002090470001</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1270,11 +1277,11 @@
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>58.367619438365097</v>
+      <c r="E31" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F31">
-        <v>13.8466605593489</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1300,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>58.396000908515902</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F32">
-        <v>13.785071236705701</v>
+        <v>13.8316208</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1358,10 +1365,10 @@
         <v>3</v>
       </c>
       <c r="E34">
-        <v>58.389932082712903</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F34">
-        <v>13.808003633562</v>
+        <v>13.8345447</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1416,10 +1423,10 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>58.415999643429203</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F36">
-        <v>13.795083615804501</v>
+        <v>13.8344532</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1474,10 +1481,10 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>58.403555739667198</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F38">
-        <v>13.805328046624901</v>
+        <v>13.8316208</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1503,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="E39">
-        <v>58.398401329128198</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F39">
-        <v>13.798200039879299</v>
+        <v>13.8345447</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1590,10 +1597,10 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <v>58.3919770747341</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F42">
-        <v>13.771094574026399</v>
+        <v>13.8572396</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1677,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>58.396817892288702</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F45">
-        <v>13.823497012107801</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -1735,10 +1742,10 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>58.387280762200902</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F47">
-        <v>13.8269527846111</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -1764,10 +1771,10 @@
         <v>7</v>
       </c>
       <c r="E48">
-        <v>58.416143370312597</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F48">
-        <v>13.7649769741854</v>
+        <v>13.8316208</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -1793,10 +1800,10 @@
         <v>7</v>
       </c>
       <c r="E49">
-        <v>58.397632528005197</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F49">
-        <v>13.7846507818345</v>
+        <v>13.8316208</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2141,10 +2148,10 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <v>58.387953126042802</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F61">
-        <v>13.776676514411299</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2170,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="E62">
-        <v>58.414108824679602</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F62">
-        <v>13.8209926162738</v>
+        <v>13.8345447</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2199,10 +2206,10 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <v>58.400174317128098</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F63">
-        <v>13.829253871317</v>
+        <v>13.8179737</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2257,10 +2264,10 @@
         <v>4</v>
       </c>
       <c r="E65">
-        <v>58.363521780986503</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F65">
-        <v>13.851502901896501</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2286,10 +2293,10 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <v>58.390129070918299</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F66">
-        <v>13.7908799777372</v>
+        <v>13.8344532</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2344,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="E68">
-        <v>58.405576937672002</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F68">
-        <v>13.812275704780101</v>
+        <v>13.8344532</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2373,10 +2380,10 @@
         <v>4</v>
       </c>
       <c r="E69">
-        <v>58.419790317718302</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F69">
-        <v>13.778826747934399</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2517,11 +2524,11 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-      <c r="E74">
-        <v>58.422296179352699</v>
+      <c r="E74" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F74">
-        <v>13.740353888818801</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -2547,10 +2554,10 @@
         <v>7</v>
       </c>
       <c r="E75">
-        <v>58.406708065339402</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F75">
-        <v>13.752865293780699</v>
+        <v>13.8316208</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>
@@ -2576,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="E76">
-        <v>58.399166028700698</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F76">
-        <v>13.7987623440149</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G76" s="1">
         <v>0</v>
@@ -2663,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="E79">
-        <v>58.385127143506303</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F79">
-        <v>13.7182835617864</v>
+        <v>13.8345447</v>
       </c>
       <c r="G79" s="1">
         <v>0</v>
@@ -2721,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="E81">
-        <v>58.390879545944003</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F81">
-        <v>13.8125492776665</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -2750,10 +2757,10 @@
         <v>4</v>
       </c>
       <c r="E82">
-        <v>58.388945362416301</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F82">
-        <v>13.768961605974599</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -2866,10 +2873,10 @@
         <v>5</v>
       </c>
       <c r="E86">
-        <v>58.416076049976802</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F86">
-        <v>13.8013887153865</v>
+        <v>13.8517893</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -2895,10 +2902,10 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <v>58.3908595082926</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F87">
-        <v>13.8278006220294</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -2924,10 +2931,10 @@
         <v>2</v>
       </c>
       <c r="E88">
-        <v>58.357615710452102</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F88">
-        <v>13.814314552823101</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G88" s="1">
         <v>0</v>
@@ -2953,10 +2960,10 @@
         <v>4</v>
       </c>
       <c r="E89">
-        <v>58.399513542308</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F89">
-        <v>13.711960992324601</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G89" s="1">
         <v>0</v>
@@ -2981,11 +2988,11 @@
       <c r="D90" s="1">
         <v>1</v>
       </c>
-      <c r="E90">
-        <v>58.368962276605899</v>
+      <c r="E90" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F90">
-        <v>13.812951391454201</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G90" s="1">
         <v>0</v>
@@ -3011,10 +3018,10 @@
         <v>9</v>
       </c>
       <c r="E91">
-        <v>58.426780828657598</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F91">
-        <v>13.755311408993199</v>
+        <v>13.8179737</v>
       </c>
       <c r="G91" s="1">
         <v>0</v>
@@ -3069,10 +3076,10 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>58.409175783088102</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F93">
-        <v>13.802149853441399</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G93" s="1">
         <v>0</v>
@@ -3098,10 +3105,10 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>58.395289521064598</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F94">
-        <v>13.8076103032839</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G94" s="1">
         <v>0</v>
@@ -3127,10 +3134,10 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <v>58.420896025692997</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F95">
-        <v>13.7641947103572</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
@@ -3243,10 +3250,10 @@
         <v>9</v>
       </c>
       <c r="E99">
-        <v>58.384087127364097</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F99">
-        <v>13.8088481596119</v>
+        <v>13.8179737</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
@@ -3272,10 +3279,10 @@
         <v>9</v>
       </c>
       <c r="E100">
-        <v>58.379752959829197</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F100">
-        <v>13.7962955241691</v>
+        <v>13.8179737</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
@@ -3301,10 +3308,10 @@
         <v>5</v>
       </c>
       <c r="E101">
-        <v>58.377452578979401</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F101">
-        <v>13.762387491312399</v>
+        <v>13.8517893</v>
       </c>
       <c r="G101" s="1">
         <v>0</v>
@@ -3330,10 +3337,10 @@
         <v>6</v>
       </c>
       <c r="E102">
-        <v>58.383945669834397</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F102">
-        <v>13.7412262715839</v>
+        <v>13.8572396</v>
       </c>
       <c r="G102" s="1">
         <v>0</v>
@@ -3388,10 +3395,10 @@
         <v>3</v>
       </c>
       <c r="E104">
-        <v>58.417143405772897</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F104">
-        <v>13.7302574775885</v>
+        <v>13.8345447</v>
       </c>
       <c r="G104" s="1">
         <v>0</v>
@@ -3533,10 +3540,10 @@
         <v>4</v>
       </c>
       <c r="E109">
-        <v>58.376706556359302</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F109">
-        <v>13.7741614786024</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
@@ -3562,10 +3569,10 @@
         <v>7</v>
       </c>
       <c r="E110">
-        <v>58.373344829233297</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F110">
-        <v>13.755808238884599</v>
+        <v>13.8316208</v>
       </c>
       <c r="G110" s="1">
         <v>0</v>
@@ -3591,10 +3598,10 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>58.362761745739803</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F111">
-        <v>13.7731044750947</v>
+        <v>13.8572396</v>
       </c>
       <c r="G111" s="1">
         <v>0</v>
@@ -3649,10 +3656,10 @@
         <v>5</v>
       </c>
       <c r="E113">
-        <v>58.393112554950598</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F113">
-        <v>13.811786287303899</v>
+        <v>13.8517893</v>
       </c>
       <c r="G113" s="1">
         <v>0</v>
@@ -3678,10 +3685,10 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>58.398732424494803</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F114">
-        <v>13.7161273886272</v>
+        <v>13.8572396</v>
       </c>
       <c r="G114" s="1">
         <v>0</v>
@@ -3735,11 +3742,11 @@
       <c r="D116" s="1">
         <v>1</v>
       </c>
-      <c r="E116">
-        <v>58.382065449529897</v>
+      <c r="E116" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F116">
-        <v>13.7724977768553</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G116" s="1">
         <v>0</v>
@@ -3765,10 +3772,10 @@
         <v>3</v>
       </c>
       <c r="E117">
-        <v>58.3977981141472</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F117">
-        <v>13.7926404869213</v>
+        <v>13.8345447</v>
       </c>
       <c r="G117" s="1">
         <v>0</v>
@@ -3852,10 +3859,10 @@
         <v>8</v>
       </c>
       <c r="E120">
-        <v>58.368500013591103</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F120">
-        <v>13.7731749868155</v>
+        <v>13.8344532</v>
       </c>
       <c r="G120" s="1">
         <v>0</v>
@@ -3881,10 +3888,10 @@
         <v>5</v>
       </c>
       <c r="E121">
-        <v>58.371778392081502</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F121">
-        <v>13.7484773063</v>
+        <v>13.8517893</v>
       </c>
       <c r="G121" s="1">
         <v>0</v>
@@ -3910,10 +3917,10 @@
         <v>4</v>
       </c>
       <c r="E122">
-        <v>58.413607748696201</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F122">
-        <v>13.782961425653699</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G122" s="1">
         <v>0</v>
@@ -3968,10 +3975,10 @@
         <v>4</v>
       </c>
       <c r="E124">
-        <v>58.383478770549502</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F124">
-        <v>13.788555130809</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G124" s="1">
         <v>0</v>
@@ -3997,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="E125">
-        <v>58.384566830175601</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F125">
-        <v>13.7406985869754</v>
+        <v>13.8345447</v>
       </c>
       <c r="G125" s="1">
         <v>0</v>
@@ -4026,10 +4033,10 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <v>58.3775556408889</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F126">
-        <v>13.7831037448102</v>
+        <v>13.8572396</v>
       </c>
       <c r="G126" s="1">
         <v>0</v>
@@ -4084,10 +4091,10 @@
         <v>7</v>
       </c>
       <c r="E128">
-        <v>58.4069318831774</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F128">
-        <v>13.731638211885601</v>
+        <v>13.8316208</v>
       </c>
       <c r="G128" s="1">
         <v>0</v>
@@ -4113,10 +4120,10 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <v>58.405064020522303</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F129">
-        <v>13.7708454476338</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G129" s="1">
         <v>0</v>
@@ -4142,10 +4149,10 @@
         <v>4</v>
       </c>
       <c r="E130">
-        <v>58.412998787818999</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F130">
-        <v>13.798010833236599</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
@@ -4257,11 +4264,11 @@
       <c r="D134" s="1">
         <v>1</v>
       </c>
-      <c r="E134">
-        <v>58.404299538070802</v>
+      <c r="E134" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F134">
-        <v>13.797032149995299</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
@@ -4286,11 +4293,11 @@
       <c r="D135" s="1">
         <v>1</v>
       </c>
-      <c r="E135">
-        <v>58.373427411169203</v>
+      <c r="E135" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F135">
-        <v>13.801082094080501</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G135" s="1">
         <v>0</v>
@@ -4374,10 +4381,10 @@
         <v>3</v>
       </c>
       <c r="E138">
-        <v>58.3727962484842</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F138">
-        <v>13.7946705029259</v>
+        <v>13.8345447</v>
       </c>
       <c r="G138" s="1">
         <v>0</v>
@@ -4403,10 +4410,10 @@
         <v>10</v>
       </c>
       <c r="E139">
-        <v>58.393172246150201</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F139">
-        <v>13.796207154277401</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G139" s="1">
         <v>0</v>
@@ -4432,10 +4439,10 @@
         <v>9</v>
       </c>
       <c r="E140">
-        <v>58.408217793788403</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F140">
-        <v>13.785305171293</v>
+        <v>13.8179737</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -4519,10 +4526,10 @@
         <v>6</v>
       </c>
       <c r="E143">
-        <v>58.371100118721898</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F143">
-        <v>13.8449297733547</v>
+        <v>13.8572396</v>
       </c>
       <c r="G143" s="1">
         <v>0</v>
@@ -4577,10 +4584,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>58.390882489284202</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F145">
-        <v>13.7901213636876</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G145" s="1">
         <v>0</v>
@@ -4605,11 +4612,11 @@
       <c r="D146" s="1">
         <v>1</v>
       </c>
-      <c r="E146">
-        <v>58.4153596610427</v>
+      <c r="E146" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F146">
-        <v>13.782970196669099</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G146" s="1">
         <v>0</v>
@@ -4751,10 +4758,10 @@
         <v>10</v>
       </c>
       <c r="E151">
-        <v>58.435591936927601</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F151">
-        <v>13.766152112263001</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G151" s="1">
         <v>0</v>
@@ -4779,11 +4786,11 @@
       <c r="D152" s="1">
         <v>1</v>
       </c>
-      <c r="E152">
-        <v>58.367971130836999</v>
+      <c r="E152" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F152">
-        <v>13.7391855561995</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G152" s="1">
         <v>0</v>
@@ -4809,10 +4816,10 @@
         <v>4</v>
       </c>
       <c r="E153">
-        <v>58.399686900027497</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F153">
-        <v>13.767391381952701</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G153" s="1">
         <v>0</v>
@@ -4896,10 +4903,10 @@
         <v>10</v>
       </c>
       <c r="E156">
-        <v>58.393246158126402</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F156">
-        <v>13.783430312750999</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -4954,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="E158">
-        <v>58.385334409167903</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F158">
-        <v>13.7314443107059</v>
+        <v>13.8344532</v>
       </c>
       <c r="G158" s="1">
         <v>0</v>
@@ -5012,10 +5019,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>58.4040135045366</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F160">
-        <v>13.814858914825001</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G160" s="1">
         <v>0</v>
@@ -5070,10 +5077,10 @@
         <v>5</v>
       </c>
       <c r="E162">
-        <v>58.401396756257697</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F162">
-        <v>13.7522053153193</v>
+        <v>13.8517893</v>
       </c>
       <c r="G162" s="1">
         <v>0</v>
@@ -5128,10 +5135,10 @@
         <v>6</v>
       </c>
       <c r="E164">
-        <v>58.366566029817299</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F164">
-        <v>13.85434589426</v>
+        <v>13.8572396</v>
       </c>
       <c r="G164" s="1">
         <v>0</v>
@@ -5244,10 +5251,10 @@
         <v>5</v>
       </c>
       <c r="E168">
-        <v>58.3703785061129</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F168">
-        <v>13.803357671118199</v>
+        <v>13.8517893</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -5302,10 +5309,10 @@
         <v>5</v>
       </c>
       <c r="E170">
-        <v>58.408139986444198</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F170">
-        <v>13.804124425973701</v>
+        <v>13.8517893</v>
       </c>
       <c r="G170" s="1">
         <v>0</v>
@@ -5360,10 +5367,10 @@
         <v>5</v>
       </c>
       <c r="E172">
-        <v>58.390769423906697</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F172">
-        <v>13.7566904193294</v>
+        <v>13.8517893</v>
       </c>
       <c r="G172" s="1">
         <v>0</v>
@@ -5389,10 +5396,10 @@
         <v>10</v>
       </c>
       <c r="E173">
-        <v>58.390116679327299</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F173">
-        <v>13.7567246574867</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G173" s="1">
         <v>0</v>
@@ -5418,10 +5425,10 @@
         <v>8</v>
       </c>
       <c r="E174">
-        <v>58.4196146765373</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F174">
-        <v>13.7575386307453</v>
+        <v>13.8344532</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -5475,11 +5482,11 @@
       <c r="D176" s="1">
         <v>1</v>
       </c>
-      <c r="E176">
-        <v>58.383874519279701</v>
+      <c r="E176" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F176">
-        <v>13.7121354943667</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G176" s="1">
         <v>0</v>
@@ -5534,10 +5541,10 @@
         <v>8</v>
       </c>
       <c r="E178">
-        <v>58.3933572510754</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F178">
-        <v>13.741131306284201</v>
+        <v>13.8344532</v>
       </c>
       <c r="G178" s="1">
         <v>0</v>
@@ -5563,10 +5570,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>58.414420083880799</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F179">
-        <v>13.7793922131722</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G179" s="1">
         <v>0</v>
@@ -5592,10 +5599,10 @@
         <v>6</v>
       </c>
       <c r="E180">
-        <v>58.389691820691901</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F180">
-        <v>13.7240131498582</v>
+        <v>13.8572396</v>
       </c>
       <c r="G180" s="1">
         <v>0</v>
@@ -5737,10 +5744,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>58.431669212899003</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F185">
-        <v>13.8090172934014</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G185" s="1">
         <v>0</v>
@@ -5766,10 +5773,10 @@
         <v>10</v>
       </c>
       <c r="E186">
-        <v>58.381811438705697</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F186">
-        <v>13.8292243153267</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G186" s="1">
         <v>0</v>
@@ -5824,10 +5831,10 @@
         <v>5</v>
       </c>
       <c r="E188">
-        <v>58.351460271563802</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F188">
-        <v>13.803188567441</v>
+        <v>13.8517893</v>
       </c>
       <c r="G188" s="1">
         <v>0</v>
@@ -5911,10 +5918,10 @@
         <v>5</v>
       </c>
       <c r="E191">
-        <v>58.4060583067387</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F191">
-        <v>13.781576963828799</v>
+        <v>13.8517893</v>
       </c>
       <c r="G191" s="1">
         <v>0</v>
@@ -5969,10 +5976,10 @@
         <v>6</v>
       </c>
       <c r="E193">
-        <v>58.383741306874903</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F193">
-        <v>13.810098592597599</v>
+        <v>13.8572396</v>
       </c>
       <c r="G193" s="1">
         <v>0</v>
@@ -6027,10 +6034,10 @@
         <v>5</v>
       </c>
       <c r="E195">
-        <v>58.394091414240002</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F195">
-        <v>13.795947561479601</v>
+        <v>13.8517893</v>
       </c>
       <c r="G195" s="1">
         <v>0</v>
@@ -6172,10 +6179,10 @@
         <v>4</v>
       </c>
       <c r="E200">
-        <v>58.383427546951602</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F200">
-        <v>13.7302484760051</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G200" s="1">
         <v>0</v>
@@ -6201,10 +6208,10 @@
         <v>6</v>
       </c>
       <c r="E201">
-        <v>58.3946112341293</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F201">
-        <v>13.791816351050601</v>
+        <v>13.8572396</v>
       </c>
       <c r="G201" s="1">
         <v>0</v>
@@ -6259,10 +6266,10 @@
         <v>9</v>
       </c>
       <c r="E203">
-        <v>58.397044055614003</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F203">
-        <v>13.8156669871613</v>
+        <v>13.8179737</v>
       </c>
       <c r="G203" s="1">
         <v>0</v>
@@ -6317,10 +6324,10 @@
         <v>8</v>
       </c>
       <c r="E205">
-        <v>58.3935269066044</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F205">
-        <v>13.7961023287508</v>
+        <v>13.8344532</v>
       </c>
       <c r="G205" s="1">
         <v>0</v>
@@ -6346,10 +6353,10 @@
         <v>2</v>
       </c>
       <c r="E206">
-        <v>58.378495168295998</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F206">
-        <v>13.792471215710499</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G206" s="1">
         <v>0</v>
@@ -6404,10 +6411,10 @@
         <v>8</v>
       </c>
       <c r="E208">
-        <v>58.415974153023001</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F208">
-        <v>13.841771809002401</v>
+        <v>13.8344532</v>
       </c>
       <c r="G208" s="1">
         <v>0</v>
@@ -6491,10 +6498,10 @@
         <v>4</v>
       </c>
       <c r="E211">
-        <v>58.3937884110208</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F211">
-        <v>13.743248935666299</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G211" s="1">
         <v>0</v>
@@ -6549,10 +6556,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>58.380065398750403</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F213">
-        <v>13.817900466178701</v>
+        <v>13.8345447</v>
       </c>
       <c r="G213" s="1">
         <v>0</v>
@@ -6636,10 +6643,10 @@
         <v>10</v>
       </c>
       <c r="E216">
-        <v>58.395275331421701</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F216">
-        <v>13.7566279078678</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G216" s="1">
         <v>0</v>
@@ -6694,10 +6701,10 @@
         <v>5</v>
       </c>
       <c r="E218">
-        <v>58.395310401755097</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F218">
-        <v>13.851851029552099</v>
+        <v>13.8517893</v>
       </c>
       <c r="G218" s="1">
         <v>0</v>
@@ -6810,10 +6817,10 @@
         <v>7</v>
       </c>
       <c r="E222">
-        <v>58.406549654737603</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F222">
-        <v>13.767181455073301</v>
+        <v>13.8316208</v>
       </c>
       <c r="G222" s="1">
         <v>0</v>
@@ -6868,10 +6875,10 @@
         <v>6</v>
       </c>
       <c r="E224">
-        <v>58.380456817611403</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F224">
-        <v>13.742943112721999</v>
+        <v>13.8572396</v>
       </c>
       <c r="G224" s="1">
         <v>0</v>
@@ -6897,10 +6904,10 @@
         <v>2</v>
       </c>
       <c r="E225">
-        <v>58.408826826214103</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F225">
-        <v>13.715597605459401</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G225" s="1">
         <v>0</v>
@@ -6926,10 +6933,10 @@
         <v>10</v>
       </c>
       <c r="E226">
-        <v>58.3802370918362</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F226">
-        <v>13.731914707272701</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G226" s="1">
         <v>0</v>
@@ -6954,11 +6961,11 @@
       <c r="D227" s="1">
         <v>1</v>
       </c>
-      <c r="E227">
-        <v>58.390100403254799</v>
+      <c r="E227" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F227">
-        <v>13.779388522303901</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G227" s="1">
         <v>0</v>
@@ -7041,11 +7048,11 @@
       <c r="D230" s="1">
         <v>1</v>
       </c>
-      <c r="E230">
-        <v>58.376051268763298</v>
+      <c r="E230" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F230">
-        <v>13.843137446912801</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G230" s="1">
         <v>0</v>
@@ -7071,10 +7078,10 @@
         <v>6</v>
       </c>
       <c r="E231">
-        <v>58.416425653213999</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F231">
-        <v>13.8652993305066</v>
+        <v>13.8572396</v>
       </c>
       <c r="G231" s="1">
         <v>0</v>
@@ -7129,10 +7136,10 @@
         <v>5</v>
       </c>
       <c r="E233">
-        <v>58.383499509516597</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F233">
-        <v>13.798065649788199</v>
+        <v>13.8517893</v>
       </c>
       <c r="G233" s="1">
         <v>0</v>
@@ -7158,10 +7165,10 @@
         <v>4</v>
       </c>
       <c r="E234">
-        <v>58.375816242921097</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F234">
-        <v>13.817566959921299</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G234" s="1">
         <v>0</v>
@@ -7215,11 +7222,11 @@
       <c r="D236" s="1">
         <v>1</v>
       </c>
-      <c r="E236">
-        <v>58.394242684357302</v>
+      <c r="E236" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F236">
-        <v>13.8124599473784</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -7274,10 +7281,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>58.375142570445497</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F238">
-        <v>13.7294565032884</v>
+        <v>13.8345447</v>
       </c>
       <c r="G238" s="1">
         <v>0</v>
@@ -7332,10 +7339,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>58.423503706056501</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F240">
-        <v>13.806174515857199</v>
+        <v>13.8345447</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -7361,10 +7368,10 @@
         <v>5</v>
       </c>
       <c r="E241">
-        <v>58.385887231622</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F241">
-        <v>13.7647852599166</v>
+        <v>13.8517893</v>
       </c>
       <c r="G241" s="1">
         <v>0</v>
@@ -7448,10 +7455,10 @@
         <v>4</v>
       </c>
       <c r="E244">
-        <v>58.430811850075202</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F244">
-        <v>13.7719396743207</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G244" s="1">
         <v>0</v>
@@ -7535,10 +7542,10 @@
         <v>10</v>
       </c>
       <c r="E247">
-        <v>58.436131436633197</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F247">
-        <v>13.813234406301</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G247" s="1">
         <v>0</v>
@@ -7593,10 +7600,10 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>58.3965279450506</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F249">
-        <v>13.7873299676589</v>
+        <v>13.8344532</v>
       </c>
       <c r="G249" s="1">
         <v>0</v>
@@ -7680,10 +7687,10 @@
         <v>9</v>
       </c>
       <c r="E252">
-        <v>58.357568142471699</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F252">
-        <v>13.7766963218764</v>
+        <v>13.8179737</v>
       </c>
       <c r="G252" s="1">
         <v>0</v>
@@ -7709,10 +7716,10 @@
         <v>9</v>
       </c>
       <c r="E253">
-        <v>58.3898322494965</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F253">
-        <v>13.790220059409799</v>
+        <v>13.8179737</v>
       </c>
       <c r="G253" s="1">
         <v>0</v>
@@ -7737,11 +7744,11 @@
       <c r="D254" s="1">
         <v>1</v>
       </c>
-      <c r="E254">
-        <v>58.376312154905797</v>
+      <c r="E254" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F254">
-        <v>13.7891030113922</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G254" s="1">
         <v>0</v>
@@ -7796,10 +7803,10 @@
         <v>5</v>
       </c>
       <c r="E256">
-        <v>58.394103166988401</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F256">
-        <v>13.8524172724224</v>
+        <v>13.8517893</v>
       </c>
       <c r="G256" s="1">
         <v>0</v>
@@ -7825,10 +7832,10 @@
         <v>4</v>
       </c>
       <c r="E257">
-        <v>58.421063960956403</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F257">
-        <v>13.817117963147</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G257" s="1">
         <v>0</v>
@@ -7883,10 +7890,10 @@
         <v>8</v>
       </c>
       <c r="E259">
-        <v>58.392035682906503</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F259">
-        <v>13.7794910826793</v>
+        <v>13.8344532</v>
       </c>
       <c r="G259" s="1">
         <v>0</v>
@@ -7970,10 +7977,10 @@
         <v>7</v>
       </c>
       <c r="E262">
-        <v>58.390962326681702</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F262">
-        <v>13.793595761320001</v>
+        <v>13.8316208</v>
       </c>
       <c r="G262" s="1">
         <v>0</v>
@@ -8144,10 +8151,10 @@
         <v>3</v>
       </c>
       <c r="E268">
-        <v>58.400319895394098</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F268">
-        <v>13.748151115361599</v>
+        <v>13.8345447</v>
       </c>
       <c r="G268" s="1">
         <v>0</v>
@@ -8202,10 +8209,10 @@
         <v>4</v>
       </c>
       <c r="E270">
-        <v>58.413506323405002</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F270">
-        <v>13.7911640127866</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G270" s="1">
         <v>0</v>
@@ -8231,10 +8238,10 @@
         <v>5</v>
       </c>
       <c r="E271">
-        <v>58.394449330798501</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F271">
-        <v>13.7918585344087</v>
+        <v>13.8517893</v>
       </c>
       <c r="G271" s="1">
         <v>0</v>
@@ -8405,10 +8412,10 @@
         <v>7</v>
       </c>
       <c r="E277">
-        <v>58.417415175896203</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F277">
-        <v>13.8648899657458</v>
+        <v>13.8316208</v>
       </c>
       <c r="G277" s="1">
         <v>0</v>
@@ -8434,10 +8441,10 @@
         <v>4</v>
       </c>
       <c r="E278">
-        <v>58.407643942448097</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F278">
-        <v>13.7908126351241</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G278" s="1">
         <v>0</v>
@@ -8492,10 +8499,10 @@
         <v>8</v>
       </c>
       <c r="E280">
-        <v>58.394631088953297</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F280">
-        <v>13.791969847075899</v>
+        <v>13.8344532</v>
       </c>
       <c r="G280" s="1">
         <v>0</v>
@@ -8608,10 +8615,10 @@
         <v>3</v>
       </c>
       <c r="E284">
-        <v>58.408070484021401</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F284">
-        <v>13.793293635559699</v>
+        <v>13.8345447</v>
       </c>
       <c r="G284" s="1">
         <v>0</v>
@@ -8637,10 +8644,10 @@
         <v>7</v>
       </c>
       <c r="E285">
-        <v>58.398304846149799</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F285">
-        <v>13.781155052962999</v>
+        <v>13.8316208</v>
       </c>
       <c r="G285" s="1">
         <v>0</v>
@@ -8695,10 +8702,10 @@
         <v>2</v>
       </c>
       <c r="E287">
-        <v>58.396201972622798</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F287">
-        <v>13.768740892453099</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G287" s="1">
         <v>0</v>
@@ -8724,10 +8731,10 @@
         <v>2</v>
       </c>
       <c r="E288">
-        <v>58.395668531429301</v>
+        <v>58.407255399999997</v>
       </c>
       <c r="F288">
-        <v>13.7899368510442</v>
+        <v>13.824840200000001</v>
       </c>
       <c r="G288" s="1">
         <v>0</v>
@@ -8753,10 +8760,10 @@
         <v>10</v>
       </c>
       <c r="E289">
-        <v>58.426428365038198</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F289">
-        <v>13.845889732080799</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G289" s="1">
         <v>0</v>
@@ -8811,10 +8818,10 @@
         <v>10</v>
       </c>
       <c r="E291">
-        <v>58.3714017623277</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F291">
-        <v>13.7194938120826</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G291" s="1">
         <v>0</v>
@@ -8897,11 +8904,11 @@
       <c r="D294" s="1">
         <v>1</v>
       </c>
-      <c r="E294">
-        <v>58.3812206964963</v>
+      <c r="E294" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F294">
-        <v>13.754620797864</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G294" s="1">
         <v>0</v>
@@ -8985,10 +8992,10 @@
         <v>7</v>
       </c>
       <c r="E297">
-        <v>58.415017232917201</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F297">
-        <v>13.7640025640701</v>
+        <v>13.8316208</v>
       </c>
       <c r="G297" s="1">
         <v>0</v>
@@ -9042,11 +9049,11 @@
       <c r="D299" s="1">
         <v>1</v>
       </c>
-      <c r="E299">
-        <v>58.418878823916302</v>
+      <c r="E299" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F299">
-        <v>13.8174721143479</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G299" s="1">
         <v>0</v>
@@ -9159,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="E303">
-        <v>58.395249904125698</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F303">
-        <v>13.792234017759</v>
+        <v>13.8179737</v>
       </c>
       <c r="G303" s="1">
         <v>0</v>
@@ -9188,10 +9195,10 @@
         <v>7</v>
       </c>
       <c r="E304">
-        <v>58.403744157562699</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F304">
-        <v>13.8729137655417</v>
+        <v>13.8316208</v>
       </c>
       <c r="G304" s="1">
         <v>0</v>
@@ -9217,10 +9224,10 @@
         <v>5</v>
       </c>
       <c r="E305">
-        <v>58.392755679803699</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F305">
-        <v>13.7624098667839</v>
+        <v>13.8517893</v>
       </c>
       <c r="G305" s="1">
         <v>0</v>
@@ -9246,10 +9253,10 @@
         <v>3</v>
       </c>
       <c r="E306">
-        <v>58.399844269758603</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F306">
-        <v>13.7905819960129</v>
+        <v>13.8345447</v>
       </c>
       <c r="G306" s="1">
         <v>0</v>
@@ -9333,10 +9340,10 @@
         <v>7</v>
       </c>
       <c r="E309">
-        <v>58.3785954408986</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F309">
-        <v>13.7618357313339</v>
+        <v>13.8316208</v>
       </c>
       <c r="G309" s="1">
         <v>0</v>
@@ -9362,10 +9369,10 @@
         <v>10</v>
       </c>
       <c r="E310">
-        <v>58.390703126412099</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F310">
-        <v>13.8055178922815</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G310" s="1">
         <v>0</v>
@@ -9391,10 +9398,10 @@
         <v>7</v>
       </c>
       <c r="E311">
-        <v>58.430314620655402</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F311">
-        <v>13.7432652280991</v>
+        <v>13.8316208</v>
       </c>
       <c r="G311" s="1">
         <v>0</v>
@@ -9420,10 +9427,10 @@
         <v>7</v>
       </c>
       <c r="E312">
-        <v>58.370534538136702</v>
+        <v>58.383955999999998</v>
       </c>
       <c r="F312">
-        <v>13.810637217808701</v>
+        <v>13.8316208</v>
       </c>
       <c r="G312" s="1">
         <v>0</v>
@@ -9449,10 +9456,10 @@
         <v>8</v>
       </c>
       <c r="E313">
-        <v>58.379707494898703</v>
+        <v>58.377971199999998</v>
       </c>
       <c r="F313">
-        <v>13.803663262376199</v>
+        <v>13.8344532</v>
       </c>
       <c r="G313" s="1">
         <v>0</v>
@@ -9478,10 +9485,10 @@
         <v>9</v>
       </c>
       <c r="E314">
-        <v>58.376040259270098</v>
+        <v>58.378826199999999</v>
       </c>
       <c r="F314">
-        <v>13.771303147564399</v>
+        <v>13.8179737</v>
       </c>
       <c r="G314" s="1">
         <v>0</v>
@@ -9507,10 +9514,10 @@
         <v>4</v>
       </c>
       <c r="E315">
-        <v>58.409305575284399</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F315">
-        <v>13.823433555336001</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G315" s="1">
         <v>0</v>
@@ -9594,10 +9601,10 @@
         <v>4</v>
       </c>
       <c r="E318">
-        <v>58.420874546482402</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F318">
-        <v>13.7950998253222</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G318" s="1">
         <v>0</v>
@@ -9623,10 +9630,10 @@
         <v>4</v>
       </c>
       <c r="E319">
-        <v>58.391441301834902</v>
+        <v>58.384389499999997</v>
       </c>
       <c r="F319">
-        <v>13.7525143379679</v>
+        <v>13.861132400000001</v>
       </c>
       <c r="G319" s="1">
         <v>0</v>
@@ -9681,10 +9688,10 @@
         <v>10</v>
       </c>
       <c r="E321">
-        <v>58.379246268904801</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F321">
-        <v>13.8599890579716</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G321" s="1">
         <v>0</v>
@@ -9768,10 +9775,10 @@
         <v>3</v>
       </c>
       <c r="E324">
-        <v>58.391367774152599</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F324">
-        <v>13.7615173612511</v>
+        <v>13.8345447</v>
       </c>
       <c r="G324" s="1">
         <v>0</v>
@@ -9797,10 +9804,10 @@
         <v>5</v>
       </c>
       <c r="E325">
-        <v>58.4131027430318</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F325">
-        <v>13.8501090525109</v>
+        <v>13.8517893</v>
       </c>
       <c r="G325" s="1">
         <v>0</v>
@@ -9854,11 +9861,11 @@
       <c r="D327" s="1">
         <v>1</v>
       </c>
-      <c r="E327">
-        <v>58.383693979533398</v>
+      <c r="E327" s="2">
+        <v>58.393154000000003</v>
       </c>
       <c r="F327">
-        <v>13.709374376574001</v>
+        <v>13.838047700000001</v>
       </c>
       <c r="G327" s="1">
         <v>0</v>
@@ -9913,10 +9920,10 @@
         <v>10</v>
       </c>
       <c r="E329">
-        <v>58.377532408392398</v>
+        <v>58.390151299999999</v>
       </c>
       <c r="F329">
-        <v>13.8592095965498</v>
+        <v>13.851222699999999</v>
       </c>
       <c r="G329" s="1">
         <v>0</v>
@@ -9942,10 +9949,10 @@
         <v>6</v>
       </c>
       <c r="E330">
-        <v>58.382085776742201</v>
+        <v>58.394265900000001</v>
       </c>
       <c r="F330">
-        <v>13.769781603603899</v>
+        <v>13.8572396</v>
       </c>
       <c r="G330" s="1">
         <v>0</v>
@@ -9971,10 +9978,10 @@
         <v>5</v>
       </c>
       <c r="E331">
-        <v>58.4112083293738</v>
+        <v>58.406094000000003</v>
       </c>
       <c r="F331">
-        <v>13.831903850550599</v>
+        <v>13.8517893</v>
       </c>
       <c r="G331" s="1">
         <v>0</v>
@@ -10000,10 +10007,10 @@
         <v>3</v>
       </c>
       <c r="E332">
-        <v>58.401022533144499</v>
+        <v>58.390452099999997</v>
       </c>
       <c r="F332">
-        <v>13.7979708747848</v>
+        <v>13.8345447</v>
       </c>
       <c r="G332" s="1">
         <v>0</v>
@@ -10116,10 +10123,10 @@
         <v>13</v>
       </c>
       <c r="E336">
-        <v>55.710636481602201</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F336">
-        <v>13.201312218005899</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -10145,10 +10152,10 @@
         <v>17</v>
       </c>
       <c r="E337">
-        <v>55.713278843057601</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F337">
-        <v>13.209556631100099</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G337">
         <v>0</v>
@@ -10174,10 +10181,10 @@
         <v>15</v>
       </c>
       <c r="E338">
-        <v>55.718084569350999</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F338">
-        <v>13.199631131551699</v>
+        <v>13.1878189</v>
       </c>
       <c r="G338">
         <v>0</v>
@@ -10551,10 +10558,10 @@
         <v>17</v>
       </c>
       <c r="E351">
-        <v>55.706779359357</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F351">
-        <v>13.203631742989201</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -10638,10 +10645,10 @@
         <v>13</v>
       </c>
       <c r="E354">
-        <v>55.681252922384402</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F354">
-        <v>13.206713437294299</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G354">
         <v>0</v>
@@ -10725,10 +10732,10 @@
         <v>17</v>
       </c>
       <c r="E357">
-        <v>55.740848245588097</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F357">
-        <v>13.242494288748899</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G357">
         <v>0</v>
@@ -10754,10 +10761,10 @@
         <v>15</v>
       </c>
       <c r="E358">
-        <v>55.708999875453202</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F358">
-        <v>13.2159193646511</v>
+        <v>13.1878189</v>
       </c>
       <c r="G358">
         <v>0</v>
@@ -10899,10 +10906,10 @@
         <v>11</v>
       </c>
       <c r="E363">
-        <v>55.6732086310383</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F363">
-        <v>13.1900046655828</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G363">
         <v>0</v>
@@ -10928,10 +10935,10 @@
         <v>17</v>
       </c>
       <c r="E364">
-        <v>55.711526424167701</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F364">
-        <v>13.2726127345802</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G364">
         <v>0</v>
@@ -10986,10 +10993,10 @@
         <v>18</v>
       </c>
       <c r="E366">
-        <v>55.7417110381245</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F366">
-        <v>13.237400658324599</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -11015,10 +11022,10 @@
         <v>14</v>
       </c>
       <c r="E367">
-        <v>55.672338246856803</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F367">
-        <v>13.2098523636376</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G367">
         <v>0</v>
@@ -11044,10 +11051,10 @@
         <v>13</v>
       </c>
       <c r="E368">
-        <v>55.708745972814597</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F368">
-        <v>13.199891227864001</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G368">
         <v>0</v>
@@ -11102,10 +11109,10 @@
         <v>12</v>
       </c>
       <c r="E370">
-        <v>55.7141371448187</v>
+        <v>55.7010352</v>
       </c>
       <c r="F370">
-        <v>13.2802639817945</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G370">
         <v>0</v>
@@ -11131,10 +11138,10 @@
         <v>19</v>
       </c>
       <c r="E371">
-        <v>55.705154328794301</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F371">
-        <v>13.191777328138199</v>
+        <v>13.1904571</v>
       </c>
       <c r="G371">
         <v>0</v>
@@ -11160,10 +11167,10 @@
         <v>11</v>
       </c>
       <c r="E372">
-        <v>55.713024378442498</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F372">
-        <v>13.1879942408715</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G372">
         <v>0</v>
@@ -11189,10 +11196,10 @@
         <v>15</v>
       </c>
       <c r="E373">
-        <v>55.7122587673827</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F373">
-        <v>13.2004890817825</v>
+        <v>13.1878189</v>
       </c>
       <c r="G373">
         <v>0</v>
@@ -11218,10 +11225,10 @@
         <v>12</v>
       </c>
       <c r="E374">
-        <v>55.708602689000003</v>
+        <v>55.7010352</v>
       </c>
       <c r="F374">
-        <v>13.193393315998399</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G374">
         <v>0</v>
@@ -11247,10 +11254,10 @@
         <v>13</v>
       </c>
       <c r="E375">
-        <v>55.748770709369801</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F375">
-        <v>13.202336360507299</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G375">
         <v>0</v>
@@ -11392,10 +11399,10 @@
         <v>17</v>
       </c>
       <c r="E380">
-        <v>55.744020588887899</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F380">
-        <v>13.164689542755401</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -11421,10 +11428,10 @@
         <v>13</v>
       </c>
       <c r="E381">
-        <v>55.721420381123203</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F381">
-        <v>13.166669366170099</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G381">
         <v>0</v>
@@ -11479,10 +11486,10 @@
         <v>18</v>
       </c>
       <c r="E383">
-        <v>55.716080091831998</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F383">
-        <v>13.2382826542273</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -11595,10 +11602,10 @@
         <v>17</v>
       </c>
       <c r="E387">
-        <v>55.709848788977702</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F387">
-        <v>13.1962641787393</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G387">
         <v>0</v>
@@ -11624,10 +11631,10 @@
         <v>12</v>
       </c>
       <c r="E388">
-        <v>55.717068917664498</v>
+        <v>55.7010352</v>
       </c>
       <c r="F388">
-        <v>13.1936367598061</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G388">
         <v>0</v>
@@ -11682,10 +11689,10 @@
         <v>14</v>
       </c>
       <c r="E390">
-        <v>55.7021688569491</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F390">
-        <v>13.185424046269</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G390">
         <v>0</v>
@@ -11856,10 +11863,10 @@
         <v>12</v>
       </c>
       <c r="E396">
-        <v>55.740256351935301</v>
+        <v>55.7010352</v>
       </c>
       <c r="F396">
-        <v>13.1588246150211</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -11885,10 +11892,10 @@
         <v>11</v>
       </c>
       <c r="E397">
-        <v>55.683925779908002</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F397">
-        <v>13.225939771595501</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G397">
         <v>0</v>
@@ -12001,10 +12008,10 @@
         <v>18</v>
       </c>
       <c r="E401">
-        <v>55.702215917677599</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F401">
-        <v>13.2197803203199</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G401">
         <v>0</v>
@@ -12030,10 +12037,10 @@
         <v>14</v>
       </c>
       <c r="E402">
-        <v>55.713657835884099</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F402">
-        <v>13.180605992419901</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G402">
         <v>0</v>
@@ -12059,10 +12066,10 @@
         <v>14</v>
       </c>
       <c r="E403">
-        <v>55.6908819043474</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F403">
-        <v>13.2633425478253</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G403">
         <v>0</v>
@@ -12088,10 +12095,10 @@
         <v>18</v>
       </c>
       <c r="E404">
-        <v>55.672650851798899</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F404">
-        <v>13.205472630841999</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G404">
         <v>0</v>
@@ -12117,10 +12124,10 @@
         <v>18</v>
       </c>
       <c r="E405">
-        <v>55.742975148791402</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F405">
-        <v>13.1627210226358</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G405">
         <v>0</v>
@@ -12204,10 +12211,10 @@
         <v>19</v>
       </c>
       <c r="E408">
-        <v>55.725308266134597</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F408">
-        <v>13.2370952969664</v>
+        <v>13.1904571</v>
       </c>
       <c r="G408">
         <v>0</v>
@@ -12291,10 +12298,10 @@
         <v>13</v>
       </c>
       <c r="E411">
-        <v>55.744801791999301</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F411">
-        <v>13.18691459867</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G411">
         <v>0</v>
@@ -12378,10 +12385,10 @@
         <v>16</v>
       </c>
       <c r="E414">
-        <v>55.703822944918002</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F414">
-        <v>13.2226413297041</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G414">
         <v>0</v>
@@ -12407,10 +12414,10 @@
         <v>19</v>
       </c>
       <c r="E415">
-        <v>55.707984218561997</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F415">
-        <v>13.197872590034599</v>
+        <v>13.1904571</v>
       </c>
       <c r="G415">
         <v>0</v>
@@ -12581,10 +12588,10 @@
         <v>16</v>
       </c>
       <c r="E421">
-        <v>55.739331512150798</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F421">
-        <v>13.167704556621899</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G421">
         <v>0</v>
@@ -12697,10 +12704,10 @@
         <v>11</v>
       </c>
       <c r="E425">
-        <v>55.713778412430401</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F425">
-        <v>13.241444876907201</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G425">
         <v>0</v>
@@ -12726,10 +12733,10 @@
         <v>18</v>
       </c>
       <c r="E426">
-        <v>55.709852519104601</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F426">
-        <v>13.2026041730496</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G426">
         <v>0</v>
@@ -12842,10 +12849,10 @@
         <v>13</v>
       </c>
       <c r="E430">
-        <v>55.728104359626002</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F430">
-        <v>13.1847962561285</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G430">
         <v>0</v>
@@ -12871,10 +12878,10 @@
         <v>16</v>
       </c>
       <c r="E431">
-        <v>55.695469111247498</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F431">
-        <v>13.2339773099228</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G431">
         <v>0</v>
@@ -12900,10 +12907,10 @@
         <v>15</v>
       </c>
       <c r="E432">
-        <v>55.713556186774497</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F432">
-        <v>13.1930704079604</v>
+        <v>13.1878189</v>
       </c>
       <c r="G432">
         <v>0</v>
@@ -13103,10 +13110,10 @@
         <v>13</v>
       </c>
       <c r="E439">
-        <v>55.751552448336199</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F439">
-        <v>13.205089790279001</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G439">
         <v>0</v>
@@ -13161,10 +13168,10 @@
         <v>19</v>
       </c>
       <c r="E441">
-        <v>55.6883131453801</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F441">
-        <v>13.201950777644299</v>
+        <v>13.1904571</v>
       </c>
       <c r="G441">
         <v>0</v>
@@ -13248,10 +13255,10 @@
         <v>12</v>
       </c>
       <c r="E444">
-        <v>55.683101235564102</v>
+        <v>55.7010352</v>
       </c>
       <c r="F444">
-        <v>13.2151379518094</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G444">
         <v>0</v>
@@ -13277,10 +13284,10 @@
         <v>12</v>
       </c>
       <c r="E445">
-        <v>55.710921798563703</v>
+        <v>55.7010352</v>
       </c>
       <c r="F445">
-        <v>13.138654259093199</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G445">
         <v>0</v>
@@ -13451,10 +13458,10 @@
         <v>13</v>
       </c>
       <c r="E451">
-        <v>55.747452100243798</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F451">
-        <v>13.1595187796741</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G451">
         <v>0</v>
@@ -13509,10 +13516,10 @@
         <v>18</v>
       </c>
       <c r="E453">
-        <v>55.723409896377603</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F453">
-        <v>13.228534149723099</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G453">
         <v>0</v>
@@ -13567,10 +13574,10 @@
         <v>17</v>
       </c>
       <c r="E455">
-        <v>55.678062797825902</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F455">
-        <v>13.1981249609427</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G455">
         <v>0</v>
@@ -13596,10 +13603,10 @@
         <v>13</v>
       </c>
       <c r="E456">
-        <v>55.700772708312101</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F456">
-        <v>13.149261134684</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G456">
         <v>0</v>
@@ -13683,10 +13690,10 @@
         <v>15</v>
       </c>
       <c r="E459">
-        <v>55.708522423995703</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F459">
-        <v>13.215302209786801</v>
+        <v>13.1878189</v>
       </c>
       <c r="G459">
         <v>0</v>
@@ -13770,10 +13777,10 @@
         <v>19</v>
       </c>
       <c r="E462">
-        <v>55.713892793516798</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F462">
-        <v>13.205449488897001</v>
+        <v>13.1904571</v>
       </c>
       <c r="G462">
         <v>0</v>
@@ -13857,10 +13864,10 @@
         <v>19</v>
       </c>
       <c r="E465">
-        <v>55.712792699569498</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F465">
-        <v>13.1950635734468</v>
+        <v>13.1904571</v>
       </c>
       <c r="G465">
         <v>0</v>
@@ -13915,10 +13922,10 @@
         <v>17</v>
       </c>
       <c r="E467">
-        <v>55.697014384027298</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F467">
-        <v>13.1440360045522</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G467">
         <v>0</v>
@@ -14002,10 +14009,10 @@
         <v>18</v>
       </c>
       <c r="E470">
-        <v>55.731668996387398</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F470">
-        <v>13.1607474270136</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G470">
         <v>0</v>
@@ -14031,10 +14038,10 @@
         <v>16</v>
       </c>
       <c r="E471">
-        <v>55.686565434938899</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F471">
-        <v>13.2338493219415</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G471">
         <v>0</v>
@@ -14060,10 +14067,10 @@
         <v>16</v>
       </c>
       <c r="E472">
-        <v>55.710108690202802</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F472">
-        <v>13.200243549793001</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G472">
         <v>0</v>
@@ -14176,10 +14183,10 @@
         <v>11</v>
       </c>
       <c r="E476">
-        <v>55.725957697395501</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F476">
-        <v>13.217764769801001</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -14205,10 +14212,10 @@
         <v>17</v>
       </c>
       <c r="E477">
-        <v>55.732602702445</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F477">
-        <v>13.250964954955601</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G477">
         <v>0</v>
@@ -14263,10 +14270,10 @@
         <v>13</v>
       </c>
       <c r="E479">
-        <v>55.714213877425301</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F479">
-        <v>13.182119024578601</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G479">
         <v>0</v>
@@ -14292,10 +14299,10 @@
         <v>12</v>
       </c>
       <c r="E480">
-        <v>55.717798999632102</v>
+        <v>55.7010352</v>
       </c>
       <c r="F480">
-        <v>13.212765346929199</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -14437,10 +14444,10 @@
         <v>18</v>
       </c>
       <c r="E485">
-        <v>55.7274299905174</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F485">
-        <v>13.240839242726199</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G485">
         <v>0</v>
@@ -14553,10 +14560,10 @@
         <v>18</v>
       </c>
       <c r="E489">
-        <v>55.715967257710297</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F489">
-        <v>13.226340590520399</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G489">
         <v>0</v>
@@ -14582,10 +14589,10 @@
         <v>13</v>
       </c>
       <c r="E490">
-        <v>55.697030911831</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F490">
-        <v>13.1897495611981</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G490">
         <v>0</v>
@@ -14611,10 +14618,10 @@
         <v>15</v>
       </c>
       <c r="E491">
-        <v>55.703157873294401</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F491">
-        <v>13.194164699167599</v>
+        <v>13.1878189</v>
       </c>
       <c r="G491">
         <v>0</v>
@@ -14669,10 +14676,10 @@
         <v>13</v>
       </c>
       <c r="E493">
-        <v>55.706296797069399</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F493">
-        <v>13.2672453038127</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G493">
         <v>0</v>
@@ -14756,10 +14763,10 @@
         <v>13</v>
       </c>
       <c r="E496">
-        <v>55.736774715946702</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F496">
-        <v>13.2524307619759</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G496">
         <v>0</v>
@@ -14785,10 +14792,10 @@
         <v>12</v>
       </c>
       <c r="E497">
-        <v>55.691473071631201</v>
+        <v>55.7010352</v>
       </c>
       <c r="F497">
-        <v>13.2232371315649</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G497">
         <v>0</v>
@@ -14843,10 +14850,10 @@
         <v>20</v>
       </c>
       <c r="E499">
-        <v>55.710698685870597</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F499">
-        <v>13.201343660661699</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G499">
         <v>0</v>
@@ -14872,10 +14879,10 @@
         <v>11</v>
       </c>
       <c r="E500">
-        <v>55.694887019006998</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F500">
-        <v>13.2412889565777</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -15046,10 +15053,10 @@
         <v>14</v>
       </c>
       <c r="E506">
-        <v>55.691580819446997</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F506">
-        <v>13.136364588639299</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G506">
         <v>0</v>
@@ -15075,10 +15082,10 @@
         <v>20</v>
       </c>
       <c r="E507">
-        <v>55.697388542480603</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F507">
-        <v>13.206229262239299</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G507">
         <v>0</v>
@@ -15104,10 +15111,10 @@
         <v>20</v>
       </c>
       <c r="E508">
-        <v>55.706658713104602</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F508">
-        <v>13.1838346711003</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G508">
         <v>0</v>
@@ -15133,10 +15140,10 @@
         <v>14</v>
       </c>
       <c r="E509">
-        <v>55.686061201155603</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F509">
-        <v>13.1940526088145</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G509">
         <v>0</v>
@@ -15249,10 +15256,10 @@
         <v>17</v>
       </c>
       <c r="E513">
-        <v>55.723219883690597</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F513">
-        <v>13.1831277283275</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G513">
         <v>0</v>
@@ -15336,10 +15343,10 @@
         <v>20</v>
       </c>
       <c r="E516">
-        <v>55.719904253753597</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F516">
-        <v>13.1983457914617</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G516">
         <v>0</v>
@@ -15423,10 +15430,10 @@
         <v>11</v>
       </c>
       <c r="E519">
-        <v>55.711868842026398</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F519">
-        <v>13.197426273340801</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G519">
         <v>0</v>
@@ -15539,10 +15546,10 @@
         <v>20</v>
       </c>
       <c r="E523">
-        <v>55.717139942965602</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F523">
-        <v>13.2080807627295</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G523">
         <v>0</v>
@@ -15568,10 +15575,10 @@
         <v>14</v>
       </c>
       <c r="E524">
-        <v>55.700820960594498</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F524">
-        <v>13.214612823651599</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G524">
         <v>0</v>
@@ -15597,10 +15604,10 @@
         <v>16</v>
       </c>
       <c r="E525">
-        <v>55.718060714353904</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F525">
-        <v>13.1663674220472</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G525">
         <v>0</v>
@@ -15684,10 +15691,10 @@
         <v>16</v>
       </c>
       <c r="E528">
-        <v>55.716231434469698</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F528">
-        <v>13.208368944283301</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -15713,10 +15720,10 @@
         <v>16</v>
       </c>
       <c r="E529">
-        <v>55.7513819054873</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F529">
-        <v>13.220612901908099</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G529">
         <v>0</v>
@@ -15742,10 +15749,10 @@
         <v>19</v>
       </c>
       <c r="E530">
-        <v>55.705981445346197</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F530">
-        <v>13.193001913578</v>
+        <v>13.1904571</v>
       </c>
       <c r="G530">
         <v>0</v>
@@ -15771,10 +15778,10 @@
         <v>16</v>
       </c>
       <c r="E531">
-        <v>55.704233533395602</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F531">
-        <v>13.193535283947901</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -15858,10 +15865,10 @@
         <v>12</v>
       </c>
       <c r="E534">
-        <v>55.715263823235198</v>
+        <v>55.7010352</v>
       </c>
       <c r="F534">
-        <v>13.1994544204567</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -15916,10 +15923,10 @@
         <v>18</v>
       </c>
       <c r="E536">
-        <v>55.740845814373202</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F536">
-        <v>13.218122046065901</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G536">
         <v>0</v>
@@ -16032,10 +16039,10 @@
         <v>18</v>
       </c>
       <c r="E540">
-        <v>55.67847213812</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F540">
-        <v>13.2407200489316</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G540">
         <v>0</v>
@@ -16061,10 +16068,10 @@
         <v>17</v>
       </c>
       <c r="E541">
-        <v>55.6961247679344</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F541">
-        <v>13.138804568839999</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -16119,10 +16126,10 @@
         <v>13</v>
       </c>
       <c r="E543">
-        <v>55.711734834667901</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F543">
-        <v>13.244067383914</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -16235,10 +16242,10 @@
         <v>19</v>
       </c>
       <c r="E547">
-        <v>55.720833172412803</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F547">
-        <v>13.194129384429001</v>
+        <v>13.1904571</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -16293,10 +16300,10 @@
         <v>19</v>
       </c>
       <c r="E549">
-        <v>55.715383746278597</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F549">
-        <v>13.1744162844535</v>
+        <v>13.1904571</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -16438,10 +16445,10 @@
         <v>15</v>
       </c>
       <c r="E554">
-        <v>55.700716051143402</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F554">
-        <v>13.1884068030365</v>
+        <v>13.1878189</v>
       </c>
       <c r="G554">
         <v>0</v>
@@ -16554,10 +16561,10 @@
         <v>15</v>
       </c>
       <c r="E558">
-        <v>55.719226272981103</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F558">
-        <v>13.249819217752901</v>
+        <v>13.1878189</v>
       </c>
       <c r="G558">
         <v>0</v>
@@ -16583,10 +16590,10 @@
         <v>13</v>
       </c>
       <c r="E559">
-        <v>55.676034681507701</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F559">
-        <v>13.226395420642801</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -16728,10 +16735,10 @@
         <v>11</v>
       </c>
       <c r="E564">
-        <v>55.726295477040097</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F564">
-        <v>13.2432099267546</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G564">
         <v>0</v>
@@ -16844,10 +16851,10 @@
         <v>14</v>
       </c>
       <c r="E568">
-        <v>55.750358526774697</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F568">
-        <v>13.2377372483807</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G568">
         <v>0</v>
@@ -16960,10 +16967,10 @@
         <v>18</v>
       </c>
       <c r="E572">
-        <v>55.731093611405399</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F572">
-        <v>13.2000743975251</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G572">
         <v>0</v>
@@ -17018,10 +17025,10 @@
         <v>20</v>
       </c>
       <c r="E574">
-        <v>55.7314472875306</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F574">
-        <v>13.206669800789401</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -17047,10 +17054,10 @@
         <v>14</v>
       </c>
       <c r="E575">
-        <v>55.7483727434686</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F575">
-        <v>13.1681799753117</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -17250,10 +17257,10 @@
         <v>11</v>
       </c>
       <c r="E582">
-        <v>55.713276383783203</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F582">
-        <v>13.148426986610501</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -17279,10 +17286,10 @@
         <v>18</v>
       </c>
       <c r="E583">
-        <v>55.734123969856299</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F583">
-        <v>13.2401607055808</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -17366,10 +17373,10 @@
         <v>19</v>
       </c>
       <c r="E586">
-        <v>55.699063076814603</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F586">
-        <v>13.210915712574501</v>
+        <v>13.1904571</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -17395,10 +17402,10 @@
         <v>16</v>
       </c>
       <c r="E587">
-        <v>55.707870757259101</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F587">
-        <v>13.207639945985401</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -17424,10 +17431,10 @@
         <v>16</v>
       </c>
       <c r="E588">
-        <v>55.699758669519397</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F588">
-        <v>13.2307199450324</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -17453,10 +17460,10 @@
         <v>19</v>
       </c>
       <c r="E589">
-        <v>55.739548915974403</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F589">
-        <v>13.177276470084699</v>
+        <v>13.1904571</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -17482,10 +17489,10 @@
         <v>20</v>
       </c>
       <c r="E590">
-        <v>55.712032319005203</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F590">
-        <v>13.173047067218</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -17569,10 +17576,10 @@
         <v>17</v>
       </c>
       <c r="E593">
-        <v>55.705964265211001</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F593">
-        <v>13.2226059714553</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -17627,10 +17634,10 @@
         <v>16</v>
       </c>
       <c r="E595">
-        <v>55.713245806307697</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F595">
-        <v>13.206223735695399</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -17714,10 +17721,10 @@
         <v>14</v>
       </c>
       <c r="E598">
-        <v>55.670226820419103</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F598">
-        <v>13.1666948494114</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G598">
         <v>0</v>
@@ -17772,10 +17779,10 @@
         <v>13</v>
       </c>
       <c r="E600">
-        <v>55.672251209004997</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F600">
-        <v>13.2098455777094</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -17888,10 +17895,10 @@
         <v>14</v>
       </c>
       <c r="E604">
-        <v>55.721718260960202</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F604">
-        <v>13.1737189541345</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G604">
         <v>0</v>
@@ -17917,10 +17924,10 @@
         <v>20</v>
       </c>
       <c r="E605">
-        <v>55.716967853175802</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F605">
-        <v>13.186652315005601</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -17946,10 +17953,10 @@
         <v>14</v>
       </c>
       <c r="E606">
-        <v>55.6847277112265</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F606">
-        <v>13.160942897384301</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -18033,10 +18040,10 @@
         <v>16</v>
       </c>
       <c r="E609">
-        <v>55.703489827389802</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F609">
-        <v>13.2645743533652</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -18062,10 +18069,10 @@
         <v>11</v>
       </c>
       <c r="E610">
-        <v>55.701820497389697</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F610">
-        <v>13.184550529714601</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -18091,10 +18098,10 @@
         <v>12</v>
       </c>
       <c r="E611">
-        <v>55.731205422724898</v>
+        <v>55.7010352</v>
       </c>
       <c r="F611">
-        <v>13.193380874274499</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G611">
         <v>0</v>
@@ -18120,10 +18127,10 @@
         <v>17</v>
       </c>
       <c r="E612">
-        <v>55.703663989505003</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F612">
-        <v>13.2088489098523</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -18149,10 +18156,10 @@
         <v>11</v>
       </c>
       <c r="E613">
-        <v>55.7360759728668</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F613">
-        <v>13.1435528887041</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -18323,10 +18330,10 @@
         <v>13</v>
       </c>
       <c r="E619">
-        <v>55.751388558099499</v>
+        <v>55.710456600000001</v>
       </c>
       <c r="F619">
-        <v>13.2062605905239</v>
+        <v>13.127784699999999</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -18381,10 +18388,10 @@
         <v>14</v>
       </c>
       <c r="E621">
-        <v>55.705941595260299</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F621">
-        <v>13.193690775636499</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G621">
         <v>0</v>
@@ -18410,10 +18417,10 @@
         <v>16</v>
       </c>
       <c r="E622">
-        <v>55.708887824940902</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F622">
-        <v>13.1962790558475</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G622">
         <v>0</v>
@@ -18584,10 +18591,10 @@
         <v>11</v>
       </c>
       <c r="E628">
-        <v>55.688229939835303</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F628">
-        <v>13.2051705015617</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G628">
         <v>0</v>
@@ -18642,10 +18649,10 @@
         <v>11</v>
       </c>
       <c r="E630">
-        <v>55.711314836018097</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F630">
-        <v>13.204489600316901</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G630">
         <v>0</v>
@@ -18671,10 +18678,10 @@
         <v>16</v>
       </c>
       <c r="E631">
-        <v>55.703929382652298</v>
+        <v>55.703105999999998</v>
       </c>
       <c r="F631">
-        <v>13.2289439319406</v>
+        <v>13.188381100000001</v>
       </c>
       <c r="G631">
         <v>0</v>
@@ -18874,10 +18881,10 @@
         <v>18</v>
       </c>
       <c r="E638">
-        <v>55.713482076473603</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F638">
-        <v>13.207933947413601</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G638">
         <v>0</v>
@@ -18903,10 +18910,10 @@
         <v>17</v>
       </c>
       <c r="E639">
-        <v>55.702511430041199</v>
+        <v>55.720996599999999</v>
       </c>
       <c r="F639">
-        <v>13.190380936653201</v>
+        <v>13.147525699999999</v>
       </c>
       <c r="G639">
         <v>0</v>
@@ -18932,10 +18939,10 @@
         <v>15</v>
       </c>
       <c r="E640">
-        <v>55.726610253519901</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F640">
-        <v>13.2139456121969</v>
+        <v>13.1878189</v>
       </c>
       <c r="G640">
         <v>0</v>
@@ -18990,10 +18997,10 @@
         <v>11</v>
       </c>
       <c r="E642">
-        <v>55.723142340956699</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F642">
-        <v>13.208728637933801</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G642">
         <v>0</v>
@@ -19019,10 +19026,10 @@
         <v>14</v>
       </c>
       <c r="E643">
-        <v>55.711822083291302</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F643">
-        <v>13.185157334076401</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G643">
         <v>0</v>
@@ -19048,10 +19055,10 @@
         <v>11</v>
       </c>
       <c r="E644">
-        <v>55.710902631697103</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F644">
-        <v>13.202152721937001</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G644">
         <v>0</v>
@@ -19135,10 +19142,10 @@
         <v>12</v>
       </c>
       <c r="E647">
-        <v>55.695275232411603</v>
+        <v>55.7010352</v>
       </c>
       <c r="F647">
-        <v>13.185143434768101</v>
+        <v>13.166274100000001</v>
       </c>
       <c r="G647">
         <v>0</v>
@@ -19251,10 +19258,10 @@
         <v>14</v>
       </c>
       <c r="E651">
-        <v>55.716822034074703</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F651">
-        <v>13.140810560312801</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G651">
         <v>0</v>
@@ -19338,10 +19345,10 @@
         <v>18</v>
       </c>
       <c r="E654">
-        <v>55.712004357054496</v>
+        <v>55.695076700000001</v>
       </c>
       <c r="F654">
-        <v>13.184653838119299</v>
+        <v>13.185634500000001</v>
       </c>
       <c r="G654">
         <v>0</v>
@@ -19367,10 +19374,10 @@
         <v>14</v>
       </c>
       <c r="E655">
-        <v>55.7090997204525</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F655">
-        <v>13.1294020103115</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G655">
         <v>0</v>
@@ -19396,10 +19403,10 @@
         <v>11</v>
       </c>
       <c r="E656">
-        <v>55.687133546181798</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F656">
-        <v>13.1699756704576</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G656">
         <v>0</v>
@@ -19512,10 +19519,10 @@
         <v>14</v>
       </c>
       <c r="E660">
-        <v>55.7116492801254</v>
+        <v>55.687336100000003</v>
       </c>
       <c r="F660">
-        <v>13.1775263533937</v>
+        <v>13.197307500000001</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -19599,10 +19606,10 @@
         <v>15</v>
       </c>
       <c r="E663">
-        <v>55.717131738336903</v>
+        <v>55.712684899999999</v>
       </c>
       <c r="F663">
-        <v>13.1919610443534</v>
+        <v>13.1878189</v>
       </c>
       <c r="G663">
         <v>0</v>
@@ -19628,10 +19635,10 @@
         <v>11</v>
       </c>
       <c r="E664">
-        <v>55.732335778857497</v>
+        <v>55.704895399999998</v>
       </c>
       <c r="F664">
-        <v>13.145196096538299</v>
+        <v>13.177051499999999</v>
       </c>
       <c r="G664">
         <v>0</v>
@@ -19657,10 +19664,10 @@
         <v>20</v>
       </c>
       <c r="E665">
-        <v>55.714703867347502</v>
+        <v>55.721532400000001</v>
       </c>
       <c r="F665">
-        <v>13.2102694614015</v>
+        <v>13.150053399999999</v>
       </c>
       <c r="G665">
         <v>0</v>
@@ -19744,10 +19751,10 @@
         <v>19</v>
       </c>
       <c r="E668">
-        <v>55.721821503009302</v>
+        <v>55.698172599999999</v>
       </c>
       <c r="F668">
-        <v>13.179144455270199</v>
+        <v>13.1904571</v>
       </c>
       <c r="G668">
         <v>0</v>
@@ -19802,10 +19809,10 @@
         <v>24</v>
       </c>
       <c r="E670">
-        <v>59.874033082357798</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F670">
-        <v>17.6608778504295</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -19831,10 +19838,10 @@
         <v>26</v>
       </c>
       <c r="E671">
-        <v>59.886883219648801</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F671">
-        <v>17.6356689857327</v>
+        <v>17.6693411</v>
       </c>
       <c r="G671">
         <v>0</v>
@@ -19860,10 +19867,10 @@
         <v>21</v>
       </c>
       <c r="E672">
-        <v>59.876571284584401</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F672">
-        <v>17.654003601717498</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -19918,10 +19925,10 @@
         <v>27</v>
       </c>
       <c r="E674">
-        <v>59.862339525593796</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F674">
-        <v>17.626651017288602</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G674">
         <v>0</v>
@@ -19976,10 +19983,10 @@
         <v>25</v>
       </c>
       <c r="E676">
-        <v>59.865990588887499</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F676">
-        <v>17.606156095984801</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G676">
         <v>0</v>
@@ -20034,10 +20041,10 @@
         <v>23</v>
       </c>
       <c r="E678">
-        <v>59.838146451130001</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F678">
-        <v>17.668964629802701</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G678">
         <v>0</v>
@@ -20063,10 +20070,10 @@
         <v>27</v>
       </c>
       <c r="E679">
-        <v>59.878082574308401</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F679">
-        <v>17.732355843990501</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -20150,10 +20157,10 @@
         <v>21</v>
       </c>
       <c r="E682">
-        <v>59.859846426611703</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F682">
-        <v>17.676975025351599</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G682">
         <v>0</v>
@@ -20179,10 +20186,10 @@
         <v>27</v>
       </c>
       <c r="E683">
-        <v>59.8729407426055</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F683">
-        <v>17.5698635130558</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G683">
         <v>0</v>
@@ -20266,10 +20273,10 @@
         <v>29</v>
       </c>
       <c r="E686">
-        <v>59.856990306729301</v>
+        <v>59.893473</v>
       </c>
       <c r="F686">
-        <v>17.685068782233301</v>
+        <v>17.6002188</v>
       </c>
       <c r="G686">
         <v>0</v>
@@ -20324,10 +20331,10 @@
         <v>26</v>
       </c>
       <c r="E688">
-        <v>59.8648738528629</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F688">
-        <v>17.635813002424499</v>
+        <v>17.6693411</v>
       </c>
       <c r="G688">
         <v>0</v>
@@ -20382,10 +20389,10 @@
         <v>27</v>
       </c>
       <c r="E690">
-        <v>59.832454721431901</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F690">
-        <v>17.597123148056699</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G690">
         <v>0</v>
@@ -20440,10 +20447,10 @@
         <v>24</v>
       </c>
       <c r="E692">
-        <v>59.8324733302128</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F692">
-        <v>17.666255610179402</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G692">
         <v>0</v>
@@ -20498,10 +20505,10 @@
         <v>30</v>
       </c>
       <c r="E694">
-        <v>59.899220180293803</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F694">
-        <v>17.6657736399398</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -20556,10 +20563,10 @@
         <v>25</v>
       </c>
       <c r="E696">
-        <v>59.884079770835299</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F696">
-        <v>17.675792356359899</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G696">
         <v>0</v>
@@ -20585,10 +20592,10 @@
         <v>27</v>
       </c>
       <c r="E697">
-        <v>59.838027495677302</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F697">
-        <v>17.641483341162498</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G697">
         <v>0</v>
@@ -20672,10 +20679,10 @@
         <v>24</v>
       </c>
       <c r="E700">
-        <v>59.847438856016304</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F700">
-        <v>17.584498095682399</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G700">
         <v>0</v>
@@ -20730,10 +20737,10 @@
         <v>23</v>
       </c>
       <c r="E702">
-        <v>59.847518763213799</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F702">
-        <v>17.6983808364716</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G702">
         <v>0</v>
@@ -20759,10 +20766,10 @@
         <v>23</v>
       </c>
       <c r="E703">
-        <v>59.852975496044202</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F703">
-        <v>17.654958745579801</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G703">
         <v>0</v>
@@ -20904,10 +20911,10 @@
         <v>27</v>
       </c>
       <c r="E708">
-        <v>59.866225721297397</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F708">
-        <v>17.7201052955287</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G708">
         <v>0</v>
@@ -20933,10 +20940,10 @@
         <v>22</v>
       </c>
       <c r="E709">
-        <v>59.8714370978917</v>
+        <v>59.852781</v>
       </c>
       <c r="F709">
-        <v>17.601163698080398</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G709">
         <v>0</v>
@@ -20962,10 +20969,10 @@
         <v>30</v>
       </c>
       <c r="E710">
-        <v>59.8807269402187</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F710">
-        <v>17.634870187901999</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G710">
         <v>0</v>
@@ -20991,10 +20998,10 @@
         <v>27</v>
       </c>
       <c r="E711">
-        <v>59.870505432957302</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F711">
-        <v>17.705529344116499</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -21020,10 +21027,10 @@
         <v>21</v>
       </c>
       <c r="E712">
-        <v>59.843179429386403</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F712">
-        <v>17.662961739719801</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G712">
         <v>0</v>
@@ -21078,10 +21085,10 @@
         <v>23</v>
       </c>
       <c r="E714">
-        <v>59.863410524243903</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F714">
-        <v>17.640857200557001</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G714">
         <v>0</v>
@@ -21107,10 +21114,10 @@
         <v>29</v>
       </c>
       <c r="E715">
-        <v>59.865093208317802</v>
+        <v>59.893473</v>
       </c>
       <c r="F715">
-        <v>17.6589083497439</v>
+        <v>17.6002188</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -21136,10 +21143,10 @@
         <v>25</v>
       </c>
       <c r="E716">
-        <v>59.857287125498303</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F716">
-        <v>17.695534231524899</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G716">
         <v>0</v>
@@ -21223,10 +21230,10 @@
         <v>30</v>
       </c>
       <c r="E719">
-        <v>59.872819594286902</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F719">
-        <v>17.5748850489225</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G719">
         <v>0</v>
@@ -21281,10 +21288,10 @@
         <v>22</v>
       </c>
       <c r="E721">
-        <v>59.885254769177998</v>
+        <v>59.852781</v>
       </c>
       <c r="F721">
-        <v>17.588725164263298</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -21310,10 +21317,10 @@
         <v>23</v>
       </c>
       <c r="E722">
-        <v>59.833661635354801</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F722">
-        <v>17.630388848614999</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G722">
         <v>0</v>
@@ -21397,10 +21404,10 @@
         <v>27</v>
       </c>
       <c r="E725">
-        <v>59.866993878244401</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F725">
-        <v>17.6481446847508</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G725">
         <v>0</v>
@@ -21484,10 +21491,10 @@
         <v>30</v>
       </c>
       <c r="E728">
-        <v>59.842350586581396</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F728">
-        <v>17.63296674962</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G728">
         <v>0</v>
@@ -21542,10 +21549,10 @@
         <v>30</v>
       </c>
       <c r="E730">
-        <v>59.865162505073997</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F730">
-        <v>17.647965813301401</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G730">
         <v>0</v>
@@ -21571,10 +21578,10 @@
         <v>24</v>
       </c>
       <c r="E731">
-        <v>59.836770399453499</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F731">
-        <v>17.604777309193199</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G731">
         <v>0</v>
@@ -21658,10 +21665,10 @@
         <v>22</v>
       </c>
       <c r="E734">
-        <v>59.892434386718797</v>
+        <v>59.852781</v>
       </c>
       <c r="F734">
-        <v>17.670416120620001</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G734">
         <v>0</v>
@@ -21774,10 +21781,10 @@
         <v>30</v>
       </c>
       <c r="E738">
-        <v>59.864278284728002</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F738">
-        <v>17.688191873254201</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G738">
         <v>0</v>
@@ -21803,10 +21810,10 @@
         <v>30</v>
       </c>
       <c r="E739">
-        <v>59.900499865640199</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F739">
-        <v>17.6364186686571</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G739">
         <v>0</v>
@@ -21832,10 +21839,10 @@
         <v>29</v>
       </c>
       <c r="E740">
-        <v>59.876402598449197</v>
+        <v>59.893473</v>
       </c>
       <c r="F740">
-        <v>17.703536384879602</v>
+        <v>17.6002188</v>
       </c>
       <c r="G740">
         <v>0</v>
@@ -21861,10 +21868,10 @@
         <v>24</v>
       </c>
       <c r="E741">
-        <v>59.864772281275599</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F741">
-        <v>17.639776096636201</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G741">
         <v>0</v>
@@ -21890,10 +21897,10 @@
         <v>27</v>
       </c>
       <c r="E742">
-        <v>59.828203513454802</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F742">
-        <v>17.679721547436301</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G742">
         <v>0</v>
@@ -21948,10 +21955,10 @@
         <v>28</v>
       </c>
       <c r="E744">
-        <v>59.841321482182799</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F744">
-        <v>17.732267633424001</v>
+        <v>17.6191301</v>
       </c>
       <c r="G744">
         <v>0</v>
@@ -21977,10 +21984,10 @@
         <v>26</v>
       </c>
       <c r="E745">
-        <v>59.8605964644156</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F745">
-        <v>17.659473210637302</v>
+        <v>17.6693411</v>
       </c>
       <c r="G745">
         <v>0</v>
@@ -22035,10 +22042,10 @@
         <v>27</v>
       </c>
       <c r="E747">
-        <v>59.881407655617998</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F747">
-        <v>17.689381477153901</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G747">
         <v>0</v>
@@ -22064,10 +22071,10 @@
         <v>30</v>
       </c>
       <c r="E748">
-        <v>59.8698663757107</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F748">
-        <v>17.662676647427801</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G748">
         <v>0</v>
@@ -22093,10 +22100,10 @@
         <v>30</v>
       </c>
       <c r="E749">
-        <v>59.859036942863497</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F749">
-        <v>17.656541265594001</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G749">
         <v>0</v>
@@ -22151,10 +22158,10 @@
         <v>23</v>
       </c>
       <c r="E751">
-        <v>59.853709101853902</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F751">
-        <v>17.689675578042699</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G751">
         <v>0</v>
@@ -22180,10 +22187,10 @@
         <v>22</v>
       </c>
       <c r="E752">
-        <v>59.850966968868399</v>
+        <v>59.852781</v>
       </c>
       <c r="F752">
-        <v>17.728964878686501</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G752">
         <v>0</v>
@@ -22238,10 +22245,10 @@
         <v>22</v>
       </c>
       <c r="E754">
-        <v>59.881425097320303</v>
+        <v>59.852781</v>
       </c>
       <c r="F754">
-        <v>17.665318927096699</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G754">
         <v>0</v>
@@ -22267,10 +22274,10 @@
         <v>24</v>
       </c>
       <c r="E755">
-        <v>59.858752383324401</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F755">
-        <v>17.607775458340601</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -22325,10 +22332,10 @@
         <v>21</v>
       </c>
       <c r="E757">
-        <v>59.823041394590497</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F757">
-        <v>17.648627439299101</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G757">
         <v>0</v>
@@ -22354,10 +22361,10 @@
         <v>28</v>
       </c>
       <c r="E758">
-        <v>59.841527753453597</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F758">
-        <v>17.602257544419199</v>
+        <v>17.6191301</v>
       </c>
       <c r="G758">
         <v>0</v>
@@ -22383,10 +22390,10 @@
         <v>25</v>
       </c>
       <c r="E759">
-        <v>59.885492793598502</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F759">
-        <v>17.645140716406701</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G759">
         <v>0</v>
@@ -22412,10 +22419,10 @@
         <v>25</v>
       </c>
       <c r="E760">
-        <v>59.873764273112698</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F760">
-        <v>17.6512739990639</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G760">
         <v>0</v>
@@ -22441,10 +22448,10 @@
         <v>22</v>
       </c>
       <c r="E761">
-        <v>59.890358641954698</v>
+        <v>59.852781</v>
       </c>
       <c r="F761">
-        <v>17.651658696793401</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G761">
         <v>0</v>
@@ -22557,10 +22564,10 @@
         <v>23</v>
       </c>
       <c r="E765">
-        <v>59.860999327857499</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F765">
-        <v>17.624411440883801</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G765">
         <v>0</v>
@@ -22586,10 +22593,10 @@
         <v>24</v>
       </c>
       <c r="E766">
-        <v>59.839594671657899</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F766">
-        <v>17.670797573696099</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G766">
         <v>0</v>
@@ -22644,10 +22651,10 @@
         <v>27</v>
       </c>
       <c r="E768">
-        <v>59.874783808775597</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F768">
-        <v>17.673231733590899</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G768">
         <v>0</v>
@@ -22702,10 +22709,10 @@
         <v>22</v>
       </c>
       <c r="E770">
-        <v>59.889747921331697</v>
+        <v>59.852781</v>
       </c>
       <c r="F770">
-        <v>17.652326529758099</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G770">
         <v>0</v>
@@ -22760,10 +22767,10 @@
         <v>22</v>
       </c>
       <c r="E772">
-        <v>59.887646380486103</v>
+        <v>59.852781</v>
       </c>
       <c r="F772">
-        <v>17.700203623688701</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G772">
         <v>0</v>
@@ -22789,10 +22796,10 @@
         <v>26</v>
       </c>
       <c r="E773">
-        <v>59.848395214626699</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F773">
-        <v>17.665280069370699</v>
+        <v>17.6693411</v>
       </c>
       <c r="G773">
         <v>0</v>
@@ -22818,10 +22825,10 @@
         <v>24</v>
       </c>
       <c r="E774">
-        <v>59.896289525082103</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F774">
-        <v>17.703073175883201</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G774">
         <v>0</v>
@@ -22847,10 +22854,10 @@
         <v>29</v>
       </c>
       <c r="E775">
-        <v>59.847297542124103</v>
+        <v>59.893473</v>
       </c>
       <c r="F775">
-        <v>17.6160493632654</v>
+        <v>17.6002188</v>
       </c>
       <c r="G775">
         <v>0</v>
@@ -22934,10 +22941,10 @@
         <v>27</v>
       </c>
       <c r="E778">
-        <v>59.865832785047097</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F778">
-        <v>17.651807379750199</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G778">
         <v>0</v>
@@ -23050,10 +23057,10 @@
         <v>23</v>
       </c>
       <c r="E782">
-        <v>59.854417463619697</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F782">
-        <v>17.6565344622996</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G782">
         <v>0</v>
@@ -23079,10 +23086,10 @@
         <v>21</v>
       </c>
       <c r="E783">
-        <v>59.850900407608997</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F783">
-        <v>17.5779389653576</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G783">
         <v>0</v>
@@ -23108,10 +23115,10 @@
         <v>24</v>
       </c>
       <c r="E784">
-        <v>59.887290663797899</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F784">
-        <v>17.700299836379401</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G784">
         <v>0</v>
@@ -23166,10 +23173,10 @@
         <v>22</v>
       </c>
       <c r="E786">
-        <v>59.873633623042203</v>
+        <v>59.852781</v>
       </c>
       <c r="F786">
-        <v>17.719796993701799</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G786">
         <v>0</v>
@@ -23224,10 +23231,10 @@
         <v>28</v>
       </c>
       <c r="E788">
-        <v>59.878098892874</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F788">
-        <v>17.6555957886114</v>
+        <v>17.6191301</v>
       </c>
       <c r="G788">
         <v>0</v>
@@ -23253,10 +23260,10 @@
         <v>25</v>
       </c>
       <c r="E789">
-        <v>59.866281211300702</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F789">
-        <v>17.6070310282736</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G789">
         <v>0</v>
@@ -23311,10 +23318,10 @@
         <v>24</v>
       </c>
       <c r="E791">
-        <v>59.870168032572003</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F791">
-        <v>17.6333920011039</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G791">
         <v>0</v>
@@ -23369,10 +23376,10 @@
         <v>23</v>
       </c>
       <c r="E793">
-        <v>59.873389510505199</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F793">
-        <v>17.6833072971395</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G793">
         <v>0</v>
@@ -23514,10 +23521,10 @@
         <v>24</v>
       </c>
       <c r="E798">
-        <v>59.8608740718037</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F798">
-        <v>17.676891696613701</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G798">
         <v>0</v>
@@ -23572,10 +23579,10 @@
         <v>26</v>
       </c>
       <c r="E800">
-        <v>59.857853994044099</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F800">
-        <v>17.624072584112501</v>
+        <v>17.6693411</v>
       </c>
       <c r="G800">
         <v>0</v>
@@ -23630,10 +23637,10 @@
         <v>29</v>
       </c>
       <c r="E802">
-        <v>59.838513922054197</v>
+        <v>59.893473</v>
       </c>
       <c r="F802">
-        <v>17.7029056482348</v>
+        <v>17.6002188</v>
       </c>
       <c r="G802">
         <v>0</v>
@@ -23659,10 +23666,10 @@
         <v>30</v>
       </c>
       <c r="E803">
-        <v>59.819557796950903</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F803">
-        <v>17.625443876710801</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G803">
         <v>0</v>
@@ -23717,10 +23724,10 @@
         <v>21</v>
       </c>
       <c r="E805">
-        <v>59.867298474376803</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F805">
-        <v>17.635317467497</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G805">
         <v>0</v>
@@ -23746,10 +23753,10 @@
         <v>25</v>
       </c>
       <c r="E806">
-        <v>59.894788092890401</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F806">
-        <v>17.612168670517001</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G806">
         <v>0</v>
@@ -23775,10 +23782,10 @@
         <v>27</v>
       </c>
       <c r="E807">
-        <v>59.867307345506198</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F807">
-        <v>17.7252602151638</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G807">
         <v>0</v>
@@ -23804,10 +23811,10 @@
         <v>23</v>
       </c>
       <c r="E808">
-        <v>59.866767044953797</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F808">
-        <v>17.652197320368</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G808">
         <v>0</v>
@@ -23862,10 +23869,10 @@
         <v>26</v>
       </c>
       <c r="E810">
-        <v>59.875946241764197</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F810">
-        <v>17.6754171052599</v>
+        <v>17.6693411</v>
       </c>
       <c r="G810">
         <v>0</v>
@@ -23891,10 +23898,10 @@
         <v>24</v>
       </c>
       <c r="E811">
-        <v>59.892020690333503</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F811">
-        <v>17.674908649393899</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G811">
         <v>0</v>
@@ -24007,10 +24014,10 @@
         <v>23</v>
       </c>
       <c r="E815">
-        <v>59.848312302837897</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F815">
-        <v>17.653445854397301</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G815">
         <v>0</v>
@@ -24094,10 +24101,10 @@
         <v>25</v>
       </c>
       <c r="E818">
-        <v>59.898224006612601</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F818">
-        <v>17.618827778596401</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G818">
         <v>0</v>
@@ -24210,10 +24217,10 @@
         <v>28</v>
       </c>
       <c r="E822">
-        <v>59.853376358283498</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F822">
-        <v>17.5866120467368</v>
+        <v>17.6191301</v>
       </c>
       <c r="G822">
         <v>0</v>
@@ -24239,10 +24246,10 @@
         <v>25</v>
       </c>
       <c r="E823">
-        <v>59.8543102724324</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F823">
-        <v>17.683105510808801</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G823">
         <v>0</v>
@@ -24268,10 +24275,10 @@
         <v>24</v>
       </c>
       <c r="E824">
-        <v>59.837703835193999</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F824">
-        <v>17.7010097787254</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G824">
         <v>0</v>
@@ -24297,10 +24304,10 @@
         <v>30</v>
       </c>
       <c r="E825">
-        <v>59.861092006774903</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F825">
-        <v>17.664451807669899</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G825">
         <v>0</v>
@@ -24384,10 +24391,10 @@
         <v>25</v>
       </c>
       <c r="E828">
-        <v>59.858928584007401</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F828">
-        <v>17.703845533016601</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G828">
         <v>0</v>
@@ -24471,10 +24478,10 @@
         <v>30</v>
       </c>
       <c r="E831">
-        <v>59.871883320221102</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F831">
-        <v>17.657175991985099</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G831">
         <v>0</v>
@@ -24500,10 +24507,10 @@
         <v>23</v>
       </c>
       <c r="E832">
-        <v>59.875644179804503</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F832">
-        <v>17.656143406780998</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G832">
         <v>0</v>
@@ -24529,10 +24536,10 @@
         <v>24</v>
       </c>
       <c r="E833">
-        <v>59.882062651107098</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F833">
-        <v>17.653347948382201</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G833">
         <v>0</v>
@@ -24558,10 +24565,10 @@
         <v>22</v>
       </c>
       <c r="E834">
-        <v>59.8541105068633</v>
+        <v>59.852781</v>
       </c>
       <c r="F834">
-        <v>17.652131420280298</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G834">
         <v>0</v>
@@ -24616,10 +24623,10 @@
         <v>23</v>
       </c>
       <c r="E836">
-        <v>59.855562725687101</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F836">
-        <v>17.639122146746601</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G836">
         <v>0</v>
@@ -24674,10 +24681,10 @@
         <v>24</v>
       </c>
       <c r="E838">
-        <v>59.847388940240997</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F838">
-        <v>17.612127274882599</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G838">
         <v>0</v>
@@ -24790,10 +24797,10 @@
         <v>24</v>
       </c>
       <c r="E842">
-        <v>59.887942556111099</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F842">
-        <v>17.6638679030299</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G842">
         <v>0</v>
@@ -24819,10 +24826,10 @@
         <v>29</v>
       </c>
       <c r="E843">
-        <v>59.867452334195001</v>
+        <v>59.893473</v>
       </c>
       <c r="F843">
-        <v>17.599213466394701</v>
+        <v>17.6002188</v>
       </c>
       <c r="G843">
         <v>0</v>
@@ -24848,10 +24855,10 @@
         <v>30</v>
       </c>
       <c r="E844">
-        <v>59.854630468833498</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F844">
-        <v>17.608018488591501</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G844">
         <v>0</v>
@@ -24906,10 +24913,10 @@
         <v>23</v>
       </c>
       <c r="E846">
-        <v>59.834014788135001</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F846">
-        <v>17.699406422186499</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G846">
         <v>0</v>
@@ -24993,10 +25000,10 @@
         <v>26</v>
       </c>
       <c r="E849">
-        <v>59.846584474840697</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F849">
-        <v>17.627055588943499</v>
+        <v>17.6693411</v>
       </c>
       <c r="G849">
         <v>0</v>
@@ -25022,10 +25029,10 @@
         <v>22</v>
       </c>
       <c r="E850">
-        <v>59.831336522419598</v>
+        <v>59.852781</v>
       </c>
       <c r="F850">
-        <v>17.700598624817701</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G850">
         <v>0</v>
@@ -25051,10 +25058,10 @@
         <v>22</v>
       </c>
       <c r="E851">
-        <v>59.847437857712599</v>
+        <v>59.852781</v>
       </c>
       <c r="F851">
-        <v>17.7058322070942</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G851">
         <v>0</v>
@@ -25080,10 +25087,10 @@
         <v>27</v>
       </c>
       <c r="E852">
-        <v>59.843847358252802</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F852">
-        <v>17.711065374815</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G852">
         <v>0</v>
@@ -25109,10 +25116,10 @@
         <v>25</v>
       </c>
       <c r="E853">
-        <v>59.843591013809103</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F853">
-        <v>17.651172799124002</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G853">
         <v>0</v>
@@ -25167,10 +25174,10 @@
         <v>30</v>
       </c>
       <c r="E855">
-        <v>59.844201360031803</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F855">
-        <v>17.643946194071901</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G855">
         <v>0</v>
@@ -25196,10 +25203,10 @@
         <v>21</v>
       </c>
       <c r="E856">
-        <v>59.892211784577498</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F856">
-        <v>17.632942736898201</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G856">
         <v>0</v>
@@ -25225,10 +25232,10 @@
         <v>22</v>
       </c>
       <c r="E857">
-        <v>59.8602990690379</v>
+        <v>59.852781</v>
       </c>
       <c r="F857">
-        <v>17.658071742401599</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G857">
         <v>0</v>
@@ -25254,10 +25261,10 @@
         <v>25</v>
       </c>
       <c r="E858">
-        <v>59.8737935573904</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F858">
-        <v>17.679279743553298</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G858">
         <v>0</v>
@@ -25312,10 +25319,10 @@
         <v>30</v>
       </c>
       <c r="E860">
-        <v>59.8526857270083</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F860">
-        <v>17.5875868001052</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G860">
         <v>0</v>
@@ -25341,10 +25348,10 @@
         <v>25</v>
       </c>
       <c r="E861">
-        <v>59.886693067352198</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F861">
-        <v>17.647381094513701</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G861">
         <v>0</v>
@@ -25399,10 +25406,10 @@
         <v>22</v>
       </c>
       <c r="E863">
-        <v>59.838637035766801</v>
+        <v>59.852781</v>
       </c>
       <c r="F863">
-        <v>17.6698015644116</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G863">
         <v>0</v>
@@ -25486,10 +25493,10 @@
         <v>28</v>
       </c>
       <c r="E866">
-        <v>59.845759913170298</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F866">
-        <v>17.629823599998002</v>
+        <v>17.6191301</v>
       </c>
       <c r="G866">
         <v>0</v>
@@ -25573,10 +25580,10 @@
         <v>21</v>
       </c>
       <c r="E869">
-        <v>59.850922679659199</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F869">
-        <v>17.640863619802701</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G869">
         <v>0</v>
@@ -25602,10 +25609,10 @@
         <v>22</v>
       </c>
       <c r="E870">
-        <v>59.863286293233102</v>
+        <v>59.852781</v>
       </c>
       <c r="F870">
-        <v>17.6437194437869</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G870">
         <v>0</v>
@@ -25660,10 +25667,10 @@
         <v>24</v>
       </c>
       <c r="E872">
-        <v>59.870667974817202</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F872">
-        <v>17.632842628246902</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G872">
         <v>0</v>
@@ -25747,10 +25754,10 @@
         <v>26</v>
       </c>
       <c r="E875">
-        <v>59.854538620880298</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F875">
-        <v>17.644410843687901</v>
+        <v>17.6693411</v>
       </c>
       <c r="G875">
         <v>0</v>
@@ -25863,10 +25870,10 @@
         <v>28</v>
       </c>
       <c r="E879">
-        <v>59.856910054144102</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F879">
-        <v>17.613363833952199</v>
+        <v>17.6191301</v>
       </c>
       <c r="G879">
         <v>0</v>
@@ -25892,10 +25899,10 @@
         <v>30</v>
       </c>
       <c r="E880">
-        <v>59.864833867384199</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F880">
-        <v>17.66987118622</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G880">
         <v>0</v>
@@ -25979,10 +25986,10 @@
         <v>30</v>
       </c>
       <c r="E883">
-        <v>59.893762908229398</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F883">
-        <v>17.631080273894899</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G883">
         <v>0</v>
@@ -26008,10 +26015,10 @@
         <v>27</v>
       </c>
       <c r="E884">
-        <v>59.850076800571003</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F884">
-        <v>17.655934787671399</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G884">
         <v>0</v>
@@ -26037,10 +26044,10 @@
         <v>29</v>
       </c>
       <c r="E885">
-        <v>59.842018263641599</v>
+        <v>59.893473</v>
       </c>
       <c r="F885">
-        <v>17.6382503780798</v>
+        <v>17.6002188</v>
       </c>
       <c r="G885">
         <v>0</v>
@@ -26066,10 +26073,10 @@
         <v>30</v>
       </c>
       <c r="E886">
-        <v>59.8554758519616</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F886">
-        <v>17.613994088649498</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G886">
         <v>0</v>
@@ -26095,10 +26102,10 @@
         <v>27</v>
       </c>
       <c r="E887">
-        <v>59.861466475205297</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F887">
-        <v>17.644393554526701</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G887">
         <v>0</v>
@@ -26124,10 +26131,10 @@
         <v>23</v>
       </c>
       <c r="E888">
-        <v>59.8369925065101</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F888">
-        <v>17.695678636679901</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G888">
         <v>0</v>
@@ -26182,10 +26189,10 @@
         <v>25</v>
       </c>
       <c r="E890">
-        <v>59.862132876073801</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F890">
-        <v>17.654871531025702</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G890">
         <v>0</v>
@@ -26211,10 +26218,10 @@
         <v>28</v>
       </c>
       <c r="E891">
-        <v>59.8825762861171</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F891">
-        <v>17.724915648943199</v>
+        <v>17.6191301</v>
       </c>
       <c r="G891">
         <v>0</v>
@@ -26240,10 +26247,10 @@
         <v>27</v>
       </c>
       <c r="E892">
-        <v>59.863359964076899</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F892">
-        <v>17.642762338100798</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G892">
         <v>0</v>
@@ -26269,10 +26276,10 @@
         <v>22</v>
       </c>
       <c r="E893">
-        <v>59.8427110961997</v>
+        <v>59.852781</v>
       </c>
       <c r="F893">
-        <v>17.623956859761702</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G893">
         <v>0</v>
@@ -26327,10 +26334,10 @@
         <v>30</v>
       </c>
       <c r="E895">
-        <v>59.859444168237701</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F895">
-        <v>17.6672876047882</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G895">
         <v>0</v>
@@ -26385,10 +26392,10 @@
         <v>21</v>
       </c>
       <c r="E897">
-        <v>59.873445277684397</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F897">
-        <v>17.615957439723299</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G897">
         <v>0</v>
@@ -26414,10 +26421,10 @@
         <v>23</v>
       </c>
       <c r="E898">
-        <v>59.852086487421801</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F898">
-        <v>17.683264526229799</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G898">
         <v>0</v>
@@ -26472,10 +26479,10 @@
         <v>30</v>
       </c>
       <c r="E900">
-        <v>59.837822511480098</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F900">
-        <v>17.611027939828499</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G900">
         <v>0</v>
@@ -26501,10 +26508,10 @@
         <v>29</v>
       </c>
       <c r="E901">
-        <v>59.853747776529197</v>
+        <v>59.893473</v>
       </c>
       <c r="F901">
-        <v>17.651430908433401</v>
+        <v>17.6002188</v>
       </c>
       <c r="G901">
         <v>0</v>
@@ -26530,10 +26537,10 @@
         <v>28</v>
       </c>
       <c r="E902">
-        <v>59.853187853934898</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F902">
-        <v>17.666240513174099</v>
+        <v>17.6191301</v>
       </c>
       <c r="G902">
         <v>0</v>
@@ -26617,10 +26624,10 @@
         <v>27</v>
       </c>
       <c r="E905">
-        <v>59.886455321081897</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F905">
-        <v>17.673148980626902</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G905">
         <v>0</v>
@@ -26646,10 +26653,10 @@
         <v>29</v>
       </c>
       <c r="E906">
-        <v>59.8593393199438</v>
+        <v>59.893473</v>
       </c>
       <c r="F906">
-        <v>17.6512635659209</v>
+        <v>17.6002188</v>
       </c>
       <c r="G906">
         <v>0</v>
@@ -26675,10 +26682,10 @@
         <v>22</v>
       </c>
       <c r="E907">
-        <v>59.847000238646402</v>
+        <v>59.852781</v>
       </c>
       <c r="F907">
-        <v>17.658466551363201</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G907">
         <v>0</v>
@@ -26704,10 +26711,10 @@
         <v>25</v>
       </c>
       <c r="E908">
-        <v>59.874630238000201</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F908">
-        <v>17.591983914082501</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G908">
         <v>0</v>
@@ -26733,10 +26740,10 @@
         <v>24</v>
       </c>
       <c r="E909">
-        <v>59.870808798486003</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F909">
-        <v>17.707094691785802</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G909">
         <v>0</v>
@@ -26762,10 +26769,10 @@
         <v>25</v>
       </c>
       <c r="E910">
-        <v>59.831167133365398</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F910">
-        <v>17.718940394063299</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G910">
         <v>0</v>
@@ -26791,10 +26798,10 @@
         <v>23</v>
       </c>
       <c r="E911">
-        <v>59.858162499232002</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F911">
-        <v>17.618689780067299</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G911">
         <v>0</v>
@@ -26849,10 +26856,10 @@
         <v>23</v>
       </c>
       <c r="E913">
-        <v>59.834248372124797</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F913">
-        <v>17.6697059438272</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G913">
         <v>0</v>
@@ -26878,10 +26885,10 @@
         <v>29</v>
       </c>
       <c r="E914">
-        <v>59.858400448406698</v>
+        <v>59.893473</v>
       </c>
       <c r="F914">
-        <v>17.641550288172098</v>
+        <v>17.6002188</v>
       </c>
       <c r="G914">
         <v>0</v>
@@ -26936,10 +26943,10 @@
         <v>21</v>
       </c>
       <c r="E916">
-        <v>59.845918847174197</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F916">
-        <v>17.640588024403598</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G916">
         <v>0</v>
@@ -27023,10 +27030,10 @@
         <v>28</v>
       </c>
       <c r="E919">
-        <v>59.844023906553602</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F919">
-        <v>17.613814053979802</v>
+        <v>17.6191301</v>
       </c>
       <c r="G919">
         <v>0</v>
@@ -27110,10 +27117,10 @@
         <v>27</v>
       </c>
       <c r="E922">
-        <v>59.836174243636201</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F922">
-        <v>17.651881005368999</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G922">
         <v>0</v>
@@ -27168,10 +27175,10 @@
         <v>29</v>
       </c>
       <c r="E924">
-        <v>59.867718384022901</v>
+        <v>59.893473</v>
       </c>
       <c r="F924">
-        <v>17.730900043630299</v>
+        <v>17.6002188</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -27226,10 +27233,10 @@
         <v>28</v>
       </c>
       <c r="E926">
-        <v>59.861042828666697</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F926">
-        <v>17.694808485671999</v>
+        <v>17.6191301</v>
       </c>
       <c r="G926">
         <v>0</v>
@@ -27284,10 +27291,10 @@
         <v>21</v>
       </c>
       <c r="E928">
-        <v>59.852393034496501</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F928">
-        <v>17.625361887939999</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G928">
         <v>0</v>
@@ -27313,10 +27320,10 @@
         <v>28</v>
       </c>
       <c r="E929">
-        <v>59.8739190864923</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F929">
-        <v>17.608204050503801</v>
+        <v>17.6191301</v>
       </c>
       <c r="G929">
         <v>0</v>
@@ -27400,10 +27407,10 @@
         <v>29</v>
       </c>
       <c r="E932">
-        <v>59.879219144568502</v>
+        <v>59.893473</v>
       </c>
       <c r="F932">
-        <v>17.639067167987601</v>
+        <v>17.6002188</v>
       </c>
       <c r="G932">
         <v>0</v>
@@ -27458,10 +27465,10 @@
         <v>23</v>
       </c>
       <c r="E934">
-        <v>59.857506910033798</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F934">
-        <v>17.6545492520818</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G934">
         <v>0</v>
@@ -27487,10 +27494,10 @@
         <v>22</v>
       </c>
       <c r="E935">
-        <v>59.845079888108501</v>
+        <v>59.852781</v>
       </c>
       <c r="F935">
-        <v>17.692189770345401</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G935">
         <v>0</v>
@@ -27516,10 +27523,10 @@
         <v>30</v>
       </c>
       <c r="E936">
-        <v>59.876802645441202</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F936">
-        <v>17.6259406757347</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G936">
         <v>0</v>
@@ -27545,10 +27552,10 @@
         <v>26</v>
       </c>
       <c r="E937">
-        <v>59.8634280663344</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F937">
-        <v>17.650235342404699</v>
+        <v>17.6693411</v>
       </c>
       <c r="G937">
         <v>0</v>
@@ -27574,10 +27581,10 @@
         <v>30</v>
       </c>
       <c r="E938">
-        <v>59.8513216214793</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F938">
-        <v>17.636585830075902</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G938">
         <v>0</v>
@@ -27603,10 +27610,10 @@
         <v>30</v>
       </c>
       <c r="E939">
-        <v>59.877747251963299</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F939">
-        <v>17.588921430047499</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G939">
         <v>0</v>
@@ -27661,10 +27668,10 @@
         <v>27</v>
       </c>
       <c r="E941">
-        <v>59.8932751679137</v>
+        <v>59.856229300000003</v>
       </c>
       <c r="F941">
-        <v>17.6481071718393</v>
+        <v>17.672345199999999</v>
       </c>
       <c r="G941">
         <v>0</v>
@@ -27690,10 +27697,10 @@
         <v>22</v>
       </c>
       <c r="E942">
-        <v>59.867012690687901</v>
+        <v>59.852781</v>
       </c>
       <c r="F942">
-        <v>17.6702688629241</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G942">
         <v>0</v>
@@ -27748,10 +27755,10 @@
         <v>25</v>
       </c>
       <c r="E944">
-        <v>59.856081883788796</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F944">
-        <v>17.657300150990199</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G944">
         <v>0</v>
@@ -27835,10 +27842,10 @@
         <v>30</v>
       </c>
       <c r="E947">
-        <v>59.849654713774001</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F947">
-        <v>17.706607409861299</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G947">
         <v>0</v>
@@ -27893,10 +27900,10 @@
         <v>21</v>
       </c>
       <c r="E949">
-        <v>59.866509385116103</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F949">
-        <v>17.657187050810499</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G949">
         <v>0</v>
@@ -28009,10 +28016,10 @@
         <v>22</v>
       </c>
       <c r="E953">
-        <v>59.8450841035501</v>
+        <v>59.852781</v>
       </c>
       <c r="F953">
-        <v>17.728354264865299</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G953">
         <v>0</v>
@@ -28096,10 +28103,10 @@
         <v>22</v>
       </c>
       <c r="E956">
-        <v>59.885478169145699</v>
+        <v>59.852781</v>
       </c>
       <c r="F956">
-        <v>17.610413865525199</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G956">
         <v>0</v>
@@ -28183,10 +28190,10 @@
         <v>21</v>
       </c>
       <c r="E959">
-        <v>59.850957289514497</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F959">
-        <v>17.7049944625746</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G959">
         <v>0</v>
@@ -28212,10 +28219,10 @@
         <v>28</v>
       </c>
       <c r="E960">
-        <v>59.851242675928397</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F960">
-        <v>17.584219014753799</v>
+        <v>17.6191301</v>
       </c>
       <c r="G960">
         <v>0</v>
@@ -28241,10 +28248,10 @@
         <v>25</v>
       </c>
       <c r="E961">
-        <v>59.848247812555599</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F961">
-        <v>17.6454361877141</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G961">
         <v>0</v>
@@ -28328,10 +28335,10 @@
         <v>24</v>
       </c>
       <c r="E964">
-        <v>59.871348694783897</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F964">
-        <v>17.704095845793599</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G964">
         <v>0</v>
@@ -28473,10 +28480,10 @@
         <v>30</v>
       </c>
       <c r="E969">
-        <v>59.863999342665799</v>
+        <v>59.821291799999997</v>
       </c>
       <c r="F969">
-        <v>17.591787608543001</v>
+        <v>17.695374900000001</v>
       </c>
       <c r="G969">
         <v>0</v>
@@ -28531,10 +28538,10 @@
         <v>26</v>
       </c>
       <c r="E971">
-        <v>59.900987631286498</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F971">
-        <v>17.626499492085902</v>
+        <v>17.6693411</v>
       </c>
       <c r="G971">
         <v>0</v>
@@ -28676,10 +28683,10 @@
         <v>24</v>
       </c>
       <c r="E976">
-        <v>59.864538466027497</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F976">
-        <v>17.658432405029998</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G976">
         <v>0</v>
@@ -28792,10 +28799,10 @@
         <v>23</v>
       </c>
       <c r="E980">
-        <v>59.856294308818498</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F980">
-        <v>17.6064686054494</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G980">
         <v>0</v>
@@ -28850,10 +28857,10 @@
         <v>25</v>
       </c>
       <c r="E982">
-        <v>59.861085460625503</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F982">
-        <v>17.614884125151999</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G982">
         <v>0</v>
@@ -28908,10 +28915,10 @@
         <v>24</v>
       </c>
       <c r="E984">
-        <v>59.835730302514001</v>
+        <v>59.871397700000003</v>
       </c>
       <c r="F984">
-        <v>17.675912140071802</v>
+        <v>17.607457199999999</v>
       </c>
       <c r="G984">
         <v>0</v>
@@ -28937,10 +28944,10 @@
         <v>29</v>
       </c>
       <c r="E985">
-        <v>59.863998292857701</v>
+        <v>59.893473</v>
       </c>
       <c r="F985">
-        <v>17.629652376489101</v>
+        <v>17.6002188</v>
       </c>
       <c r="G985">
         <v>0</v>
@@ -28966,10 +28973,10 @@
         <v>22</v>
       </c>
       <c r="E986">
-        <v>59.880232350756998</v>
+        <v>59.852781</v>
       </c>
       <c r="F986">
-        <v>17.6591692460423</v>
+        <v>17.617413500000001</v>
       </c>
       <c r="G986">
         <v>0</v>
@@ -28995,10 +29002,10 @@
         <v>26</v>
       </c>
       <c r="E987">
-        <v>59.839386711952997</v>
+        <v>59.851444700000002</v>
       </c>
       <c r="F987">
-        <v>17.696375829058098</v>
+        <v>17.6693411</v>
       </c>
       <c r="G987">
         <v>0</v>
@@ -29053,10 +29060,10 @@
         <v>28</v>
       </c>
       <c r="E989">
-        <v>59.859312489287802</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F989">
-        <v>17.659220336238501</v>
+        <v>17.6191301</v>
       </c>
       <c r="G989">
         <v>0</v>
@@ -29082,10 +29089,10 @@
         <v>23</v>
       </c>
       <c r="E990">
-        <v>59.847077425157302</v>
+        <v>59.874628700000002</v>
       </c>
       <c r="F990">
-        <v>17.603388913213902</v>
+        <v>17.626082400000001</v>
       </c>
       <c r="G990">
         <v>0</v>
@@ -29140,10 +29147,10 @@
         <v>21</v>
       </c>
       <c r="E992">
-        <v>59.824636717012602</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F992">
-        <v>17.6191872082141</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G992">
         <v>0</v>
@@ -29198,10 +29205,10 @@
         <v>25</v>
       </c>
       <c r="E994">
-        <v>59.8962892535463</v>
+        <v>59.833032500000002</v>
       </c>
       <c r="F994">
-        <v>17.674680643260501</v>
+        <v>17.666680400000001</v>
       </c>
       <c r="G994">
         <v>0</v>
@@ -29227,10 +29234,10 @@
         <v>28</v>
       </c>
       <c r="E995">
-        <v>59.836319587599903</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F995">
-        <v>17.712584639223198</v>
+        <v>17.6191301</v>
       </c>
       <c r="G995">
         <v>0</v>
@@ -29314,10 +29321,10 @@
         <v>29</v>
       </c>
       <c r="E998">
-        <v>59.865050091876498</v>
+        <v>59.893473</v>
       </c>
       <c r="F998">
-        <v>17.700707159978599</v>
+        <v>17.6002188</v>
       </c>
       <c r="G998">
         <v>0</v>
@@ -29372,10 +29379,10 @@
         <v>28</v>
       </c>
       <c r="E1000">
-        <v>59.876352835854</v>
+        <v>59.851660199999998</v>
       </c>
       <c r="F1000">
-        <v>17.7153963364368</v>
+        <v>17.6191301</v>
       </c>
       <c r="G1000">
         <v>0</v>
@@ -29430,10 +29437,10 @@
         <v>21</v>
       </c>
       <c r="E1002">
-        <v>59.8685295479278</v>
+        <v>59.859418699999999</v>
       </c>
       <c r="F1002">
-        <v>17.661426456976098</v>
+        <v>17.617585200000001</v>
       </c>
       <c r="G1002">
         <v>0</v>
